--- a/documents/Plan/DetailPlan.xlsx
+++ b/documents/Plan/DetailPlan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="223">
   <si>
     <t>Task Name</t>
   </si>
@@ -435,9 +435,6 @@
     <t>TuanNA, LocND</t>
   </si>
   <si>
-    <t>3.3 Sprint 2 ( Income and Expense management)</t>
-  </si>
-  <si>
     <t xml:space="preserve">     3.2.22 Review Schedule, Borrowing and Lending function</t>
   </si>
   <si>
@@ -477,9 +474,6 @@
     <t xml:space="preserve">     3.3.10 Execute test round 2</t>
   </si>
   <si>
-    <t xml:space="preserve">       3.3.2.1 Main screen of function</t>
-  </si>
-  <si>
     <t xml:space="preserve">       3.3.2.2 View detail income and expense screen</t>
   </si>
   <si>
@@ -534,9 +528,6 @@
     <t>Sat 10/13/12</t>
   </si>
   <si>
-    <t>3.4 Sprint 3 ( Report and Warning function)</t>
-  </si>
-  <si>
     <t>Tue 10/9/12</t>
   </si>
   <si>
@@ -552,42 +543,12 @@
     <t xml:space="preserve">     3.3.11 Execute test round 2</t>
   </si>
   <si>
-    <t xml:space="preserve">     3.3.12 Review Income and Expense management function</t>
-  </si>
-  <si>
     <t xml:space="preserve">     3.3.13 Meeting for complete sprint 2</t>
   </si>
   <si>
-    <t xml:space="preserve">       3.3.2.1 Report function</t>
-  </si>
-  <si>
     <t xml:space="preserve">         3.3.2.1.1 Main screen</t>
   </si>
   <si>
-    <t xml:space="preserve">         3.3.2.1.2 Detail screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         3.3.2.1.3 Chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3.3.2.2 Warning function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         3.3.2.2.2 Setup screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         3.3.2.2.1 Main screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         3.3.2.3 Warning screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.3.2 Create GUI of Income and Expense management screen (ver 0.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.3.2 Create GUI of Report and Warning function (ver 0.1)</t>
-  </si>
-  <si>
     <t>Tue 10/30/12</t>
   </si>
   <si>
@@ -609,9 +570,6 @@
     <t>Wed 10/17/12</t>
   </si>
   <si>
-    <t>Thu 10/18/12</t>
-  </si>
-  <si>
     <t>Thu 10/25/12</t>
   </si>
   <si>
@@ -654,9 +612,6 @@
     <t xml:space="preserve">     3.3.12 Meeting for complete sprint 3</t>
   </si>
   <si>
-    <t>3.4 Sprint 4 ( Synchronize function)</t>
-  </si>
-  <si>
     <t xml:space="preserve">     3.3.2 Create GUI of Synchronize function (ver 0.1)</t>
   </si>
   <si>
@@ -685,6 +640,51 @@
   </si>
   <si>
     <t>LinhLLL, GamNT</t>
+  </si>
+  <si>
+    <t>3.3 Sprint 2 ( Income and Expense management, Warning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.3.2 Create GUI for Sprint 2 (ver 0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.3.2.1 Main screen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.3.2.1 Income and Expense management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.3.2.2 Warning</t>
+  </si>
+  <si>
+    <t>3  days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.3.5.1 Income and Expense management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.3.5.2 Warning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.3.12 Review Income and Expense management, warning functions</t>
+  </si>
+  <si>
+    <t>3.4 Sprint 3 ( NFC and QR Code)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.3.2 Create GUI (ver 0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.3.2.1 NFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.3.2.2 QR code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.3.11 Review NFC and QR code</t>
+  </si>
+  <si>
+    <t>3.4 Sprint 4 ( Report and Synchronize function)</t>
   </si>
 </sst>
 </file>
@@ -814,7 +814,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -857,8 +857,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -892,19 +898,6 @@
         <color rgb="FFB1BBCC"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB1BBCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB1BBCC"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB1BBCC"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -959,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1023,44 +1016,45 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1365,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD531"/>
+  <dimension ref="A1:AD527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,7 +1651,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
@@ -1965,7 +1959,7 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2117,7 +2111,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>26</v>
@@ -2249,7 +2243,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>77</v>
@@ -2303,7 +2297,7 @@
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>77</v>
@@ -2587,7 +2581,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2793,7 +2787,7 @@
     </row>
     <row r="83" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>21</v>
@@ -2809,7 +2803,7 @@
     </row>
     <row r="84" spans="1:6" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B84" s="23" t="s">
         <v>77</v>
@@ -2825,7 +2819,7 @@
     </row>
     <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>77</v>
@@ -2841,7 +2835,7 @@
     </row>
     <row r="86" spans="1:6" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>18</v>
@@ -2850,14 +2844,14 @@
         <v>120</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>19</v>
@@ -2866,16 +2860,16 @@
         <v>120</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>14</v>
@@ -2884,7 +2878,7 @@
         <v>120</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
@@ -2893,34 +2887,32 @@
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="F89" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
@@ -2929,16 +2921,16 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -2947,97 +2939,97 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E93" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E94" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E95" s="1"/>
-      <c r="F95" s="1" t="s">
-        <v>138</v>
+      <c r="F95" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="F96" s="1" t="s">
-        <v>61</v>
+      <c r="F96" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>10</v>
@@ -3046,97 +3038,97 @@
         <v>120</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23" t="s">
-        <v>130</v>
+    <row r="99" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2" t="s">
+      <c r="C101" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
@@ -3145,16 +3137,16 @@
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
@@ -3163,174 +3155,176 @@
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F104" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1" t="s">
-        <v>75</v>
+        <v>167</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E106" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E107" s="1"/>
-      <c r="F107" s="2" t="s">
+      <c r="F107" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2" t="s">
+      <c r="C110" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E110" s="48"/>
+      <c r="F110" s="47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B110" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
     </row>
     <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E111" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
     </row>
     <row r="113" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="2" t="s">
@@ -3338,2722 +3332,2555 @@
       </c>
     </row>
     <row r="114" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B114" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D114" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="E114" s="28"/>
+      <c r="A114" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E114" s="1"/>
       <c r="F114" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B115" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>194</v>
+        <v>219</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E115" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="E115" s="1"/>
       <c r="F115" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G115" s="30"/>
-      <c r="H115" s="30"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="30"/>
-      <c r="K115" s="30"/>
-      <c r="L115" s="30"/>
-      <c r="M115" s="30"/>
-      <c r="N115" s="30"/>
-      <c r="O115" s="30"/>
-      <c r="P115" s="30"/>
-      <c r="Q115" s="30"/>
-      <c r="R115" s="30"/>
-      <c r="S115" s="30"/>
-      <c r="T115" s="30"/>
-      <c r="U115" s="30"/>
-      <c r="V115" s="30"/>
-      <c r="W115" s="30"/>
-      <c r="X115" s="30"/>
-      <c r="Y115" s="30"/>
-      <c r="Z115" s="30"/>
-      <c r="AA115" s="30"/>
-      <c r="AB115" s="30"/>
-      <c r="AC115" s="30"/>
-      <c r="AD115" s="30"/>
     </row>
     <row r="116" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G116" s="30"/>
-      <c r="H116" s="30"/>
-      <c r="I116" s="30"/>
-      <c r="J116" s="30"/>
-      <c r="K116" s="30"/>
-      <c r="L116" s="30"/>
-      <c r="M116" s="30"/>
-      <c r="N116" s="30"/>
-      <c r="O116" s="30"/>
-      <c r="P116" s="30"/>
-      <c r="Q116" s="30"/>
-      <c r="R116" s="30"/>
-      <c r="S116" s="30"/>
-      <c r="T116" s="30"/>
-      <c r="U116" s="30"/>
-      <c r="V116" s="30"/>
-      <c r="W116" s="30"/>
-      <c r="X116" s="30"/>
-      <c r="Y116" s="30"/>
-      <c r="Z116" s="30"/>
-      <c r="AA116" s="30"/>
-      <c r="AB116" s="30"/>
-      <c r="AC116" s="30"/>
-      <c r="AD116" s="30"/>
-    </row>
-    <row r="117" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="29"/>
+      <c r="M116" s="29"/>
+      <c r="N116" s="29"/>
+      <c r="O116" s="29"/>
+      <c r="P116" s="29"/>
+      <c r="Q116" s="29"/>
+      <c r="R116" s="29"/>
+      <c r="S116" s="29"/>
+      <c r="T116" s="29"/>
+      <c r="U116" s="29"/>
+      <c r="V116" s="29"/>
+      <c r="W116" s="29"/>
+      <c r="X116" s="29"/>
+      <c r="Y116" s="29"/>
+      <c r="Z116" s="29"/>
+      <c r="AA116" s="29"/>
+      <c r="AB116" s="29"/>
+      <c r="AC116" s="29"/>
+      <c r="AD116" s="29"/>
+    </row>
+    <row r="117" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E117" s="2"/>
+        <v>183</v>
+      </c>
       <c r="F117" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G117" s="30"/>
-      <c r="H117" s="30"/>
-      <c r="I117" s="30"/>
-      <c r="J117" s="30"/>
-      <c r="K117" s="30"/>
-      <c r="L117" s="30"/>
-      <c r="M117" s="30"/>
-      <c r="N117" s="30"/>
-      <c r="O117" s="30"/>
-      <c r="P117" s="30"/>
-      <c r="Q117" s="30"/>
-      <c r="R117" s="30"/>
-      <c r="S117" s="30"/>
-      <c r="T117" s="30"/>
-      <c r="U117" s="30"/>
-      <c r="V117" s="30"/>
-      <c r="W117" s="30"/>
-      <c r="X117" s="30"/>
-      <c r="Y117" s="30"/>
-      <c r="Z117" s="30"/>
-      <c r="AA117" s="30"/>
-      <c r="AB117" s="30"/>
-      <c r="AC117" s="30"/>
-      <c r="AD117" s="30"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="118" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B118" s="28" t="s">
-        <v>21</v>
+        <v>178</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E118" s="2"/>
+        <v>183</v>
+      </c>
       <c r="F118" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G118" s="30"/>
-      <c r="H118" s="30"/>
-      <c r="I118" s="30"/>
-      <c r="J118" s="30"/>
-      <c r="K118" s="30"/>
-      <c r="L118" s="30"/>
-      <c r="M118" s="30"/>
-      <c r="N118" s="30"/>
-      <c r="O118" s="30"/>
-      <c r="P118" s="30"/>
-      <c r="Q118" s="30"/>
-      <c r="R118" s="30"/>
-      <c r="S118" s="30"/>
-      <c r="T118" s="30"/>
-      <c r="U118" s="30"/>
-      <c r="V118" s="30"/>
-      <c r="W118" s="30"/>
-      <c r="X118" s="30"/>
-      <c r="Y118" s="30"/>
-      <c r="Z118" s="30"/>
-      <c r="AA118" s="30"/>
-      <c r="AB118" s="30"/>
-      <c r="AC118" s="30"/>
-      <c r="AD118" s="30"/>
+        <v>207</v>
+      </c>
     </row>
     <row r="119" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B119" s="28" t="s">
-        <v>21</v>
+        <v>147</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E119" s="2"/>
+        <v>184</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="31"/>
-      <c r="K119" s="31"/>
-      <c r="L119" s="31"/>
-      <c r="M119" s="31"/>
-      <c r="N119" s="31"/>
-      <c r="O119" s="31"/>
-      <c r="P119" s="31"/>
-      <c r="Q119" s="31"/>
-      <c r="R119" s="31"/>
-      <c r="S119" s="31"/>
-      <c r="T119" s="31"/>
-      <c r="U119" s="31"/>
-      <c r="V119" s="31"/>
-      <c r="W119" s="31"/>
-      <c r="X119" s="31"/>
-      <c r="Y119" s="31"/>
-      <c r="Z119" s="31"/>
-      <c r="AA119" s="31"/>
-      <c r="AB119" s="31"/>
-      <c r="AC119" s="31"/>
-      <c r="AD119" s="31"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="120" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="29" t="s">
-        <v>187</v>
+      <c r="A120" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>41</v>
+        <v>184</v>
+      </c>
+      <c r="F120" s="31" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="D121" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E122" s="35"/>
+      <c r="F122" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G122" s="36"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="37"/>
+      <c r="K122" s="37"/>
+      <c r="L122" s="37"/>
+      <c r="M122" s="37"/>
+      <c r="N122" s="37"/>
+      <c r="O122" s="37"/>
+      <c r="P122" s="37"/>
+      <c r="Q122" s="37"/>
+      <c r="R122" s="37"/>
+      <c r="S122" s="37"/>
+      <c r="T122" s="37"/>
+      <c r="U122" s="37"/>
+      <c r="V122" s="37"/>
+      <c r="W122" s="37"/>
+      <c r="X122" s="37"/>
+      <c r="Y122" s="37"/>
+      <c r="Z122" s="38"/>
+    </row>
+    <row r="123" spans="1:30" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E123" s="39"/>
+      <c r="F123" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G123" s="45"/>
+      <c r="H123" s="40"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="40"/>
+      <c r="L123" s="40"/>
+      <c r="M123" s="40"/>
+      <c r="N123" s="40"/>
+      <c r="O123" s="40"/>
+      <c r="P123" s="40"/>
+      <c r="Q123" s="40"/>
+      <c r="R123" s="40"/>
+      <c r="S123" s="40"/>
+      <c r="T123" s="40"/>
+      <c r="U123" s="40"/>
+      <c r="V123" s="40"/>
+      <c r="W123" s="40"/>
+      <c r="X123" s="40"/>
+      <c r="Y123" s="40"/>
+      <c r="Z123" s="40"/>
+    </row>
+    <row r="124" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B124" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D124" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E124" s="32"/>
+      <c r="F124" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G124" s="32"/>
+    </row>
+    <row r="125" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E125" s="32"/>
+      <c r="F125" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G125" s="32"/>
+    </row>
+    <row r="126" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E126" s="32"/>
+      <c r="F126" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G126" s="32"/>
+    </row>
+    <row r="127" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C127" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E127" s="32"/>
+      <c r="F127" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G127" s="32"/>
+    </row>
+    <row r="128" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D128" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E128" s="32"/>
+      <c r="F128" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G128" s="32"/>
+    </row>
+    <row r="129" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C129" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E129" s="32"/>
+      <c r="F129" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G129" s="32"/>
+    </row>
+    <row r="130" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E130" s="32"/>
+      <c r="F130" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G130" s="32"/>
+    </row>
+    <row r="131" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D131" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E131" s="32"/>
+      <c r="F131" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G131" s="32"/>
+    </row>
+    <row r="132" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C132" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E132" s="32"/>
+      <c r="F132" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G132" s="32"/>
+    </row>
+    <row r="133" spans="1:30" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E133" s="42"/>
+      <c r="F133" s="19"/>
+    </row>
+    <row r="134" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="122" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B122" s="2" t="s">
+      <c r="B134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="123" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F124" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F125" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="126" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="D126" s="33" t="s">
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B137" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" s="28"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="44"/>
+      <c r="F137" s="2"/>
+    </row>
+    <row r="138" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E126" s="37"/>
-      <c r="F126" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G126" s="38"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
-      <c r="J126" s="39"/>
-      <c r="K126" s="39"/>
-      <c r="L126" s="39"/>
-      <c r="M126" s="39"/>
-      <c r="N126" s="39"/>
-      <c r="O126" s="39"/>
-      <c r="P126" s="39"/>
-      <c r="Q126" s="39"/>
-      <c r="R126" s="39"/>
-      <c r="S126" s="39"/>
-      <c r="T126" s="39"/>
-      <c r="U126" s="39"/>
-      <c r="V126" s="39"/>
-      <c r="W126" s="39"/>
-      <c r="X126" s="39"/>
-      <c r="Y126" s="39"/>
-      <c r="Z126" s="40"/>
-    </row>
-    <row r="127" spans="1:30" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B127" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C127" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D127" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="E127" s="41"/>
-      <c r="F127" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="G127" s="47"/>
-      <c r="H127" s="42"/>
-      <c r="I127" s="42"/>
-      <c r="J127" s="42"/>
-      <c r="K127" s="42"/>
-      <c r="L127" s="42"/>
-      <c r="M127" s="42"/>
-      <c r="N127" s="42"/>
-      <c r="O127" s="42"/>
-      <c r="P127" s="42"/>
-      <c r="Q127" s="42"/>
-      <c r="R127" s="42"/>
-      <c r="S127" s="42"/>
-      <c r="T127" s="42"/>
-      <c r="U127" s="42"/>
-      <c r="V127" s="42"/>
-      <c r="W127" s="42"/>
-      <c r="X127" s="42"/>
-      <c r="Y127" s="42"/>
-      <c r="Z127" s="42"/>
-    </row>
-    <row r="128" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="B128" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C128" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D128" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="E128" s="34"/>
-      <c r="F128" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G128" s="34"/>
-    </row>
-    <row r="129" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B129" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C129" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D129" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="E129" s="34"/>
-      <c r="F129" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G129" s="34"/>
-    </row>
-    <row r="130" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B130" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C130" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D130" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="E130" s="34"/>
-      <c r="F130" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G130" s="34"/>
-    </row>
-    <row r="131" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B131" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C131" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="D131" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="E131" s="34"/>
-      <c r="F131" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G131" s="34"/>
-    </row>
-    <row r="132" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B132" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C132" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="D132" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="E132" s="34"/>
-      <c r="F132" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="G132" s="34"/>
-    </row>
-    <row r="133" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B133" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D133" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="E133" s="34"/>
-      <c r="F133" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G133" s="34"/>
-    </row>
-    <row r="134" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B134" s="33" t="s">
+      <c r="B138" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C134" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="D134" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="E134" s="34"/>
-      <c r="F134" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="G134" s="34"/>
-    </row>
-    <row r="135" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B135" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="D135" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="E135" s="34"/>
-      <c r="F135" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G135" s="34"/>
-    </row>
-    <row r="136" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B136" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C136" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="D136" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="E136" s="34"/>
-      <c r="F136" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G136" s="34"/>
-    </row>
-    <row r="137" spans="1:30" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D137" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="E137" s="44"/>
-      <c r="F137" s="19"/>
-    </row>
-    <row r="138" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C138" s="2"/>
+      <c r="C138" s="28"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="45"/>
-      <c r="F138" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="E138" s="30"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="46"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="29"/>
+      <c r="M138" s="29"/>
+      <c r="N138" s="29"/>
+      <c r="O138" s="29"/>
+      <c r="P138" s="29"/>
+      <c r="Q138" s="29"/>
+      <c r="R138" s="29"/>
+      <c r="S138" s="29"/>
+      <c r="T138" s="29"/>
+      <c r="U138" s="29"/>
+      <c r="V138" s="29"/>
+      <c r="W138" s="29"/>
+      <c r="X138" s="29"/>
+      <c r="Y138" s="29"/>
+      <c r="Z138" s="29"/>
+      <c r="AA138" s="29"/>
+      <c r="AB138" s="29"/>
+      <c r="AC138" s="29"/>
+      <c r="AD138" s="29"/>
     </row>
     <row r="139" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="45"/>
-      <c r="F139" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="F139" s="31"/>
     </row>
     <row r="140" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="45"/>
-      <c r="F140" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="F140" s="31"/>
     </row>
     <row r="141" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="B141" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="46"/>
-      <c r="F141" s="2"/>
-    </row>
-    <row r="142" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="F141" s="31"/>
+    </row>
+    <row r="142" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B142" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C142" s="28"/>
+        <v>203</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="2"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="32"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="48"/>
-      <c r="H142" s="30"/>
-      <c r="I142" s="30"/>
-      <c r="J142" s="30"/>
-      <c r="K142" s="30"/>
-      <c r="L142" s="30"/>
-      <c r="M142" s="30"/>
-      <c r="N142" s="30"/>
-      <c r="O142" s="30"/>
-      <c r="P142" s="30"/>
-      <c r="Q142" s="30"/>
-      <c r="R142" s="30"/>
-      <c r="S142" s="30"/>
-      <c r="T142" s="30"/>
-      <c r="U142" s="30"/>
-      <c r="V142" s="30"/>
-      <c r="W142" s="30"/>
-      <c r="X142" s="30"/>
-      <c r="Y142" s="30"/>
-      <c r="Z142" s="30"/>
-      <c r="AA142" s="30"/>
-      <c r="AB142" s="30"/>
-      <c r="AC142" s="30"/>
-      <c r="AD142" s="30"/>
+      <c r="F142" s="31"/>
     </row>
     <row r="143" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="F143" s="33"/>
+      <c r="F143" s="31"/>
     </row>
     <row r="144" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>217</v>
+      <c r="A144" s="30" t="s">
+        <v>205</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="36"/>
+      <c r="H144" s="37"/>
+      <c r="I144" s="37"/>
+      <c r="J144" s="37"/>
+      <c r="K144" s="37"/>
+      <c r="L144" s="37"/>
+      <c r="M144" s="37"/>
+      <c r="N144" s="37"/>
+      <c r="O144" s="37"/>
+      <c r="P144" s="37"/>
+      <c r="Q144" s="37"/>
+      <c r="R144" s="37"/>
+      <c r="S144" s="37"/>
+      <c r="T144" s="37"/>
+      <c r="U144" s="37"/>
+      <c r="V144" s="37"/>
+      <c r="W144" s="37"/>
+      <c r="X144" s="37"/>
+      <c r="Y144" s="37"/>
+      <c r="Z144" s="38"/>
+    </row>
+    <row r="145" spans="1:26" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" s="34"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="39"/>
+      <c r="F145" s="34"/>
+      <c r="G145" s="45"/>
+      <c r="H145" s="40"/>
+      <c r="I145" s="40"/>
+      <c r="J145" s="40"/>
+      <c r="K145" s="40"/>
+      <c r="L145" s="40"/>
+      <c r="M145" s="40"/>
+      <c r="N145" s="40"/>
+      <c r="O145" s="40"/>
+      <c r="P145" s="40"/>
+      <c r="Q145" s="40"/>
+      <c r="R145" s="40"/>
+      <c r="S145" s="40"/>
+      <c r="T145" s="40"/>
+      <c r="U145" s="40"/>
+      <c r="V145" s="40"/>
+      <c r="W145" s="40"/>
+      <c r="X145" s="40"/>
+      <c r="Y145" s="40"/>
+      <c r="Z145" s="40"/>
+    </row>
+    <row r="146" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B146" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C146" s="41"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="32"/>
+    </row>
+    <row r="147" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" s="41"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="32"/>
+    </row>
+    <row r="148" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" s="41"/>
+      <c r="D148" s="41"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="32"/>
+    </row>
+    <row r="149" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B149" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C149" s="41"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="32"/>
+    </row>
+    <row r="150" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="32"/>
+    </row>
+    <row r="151" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-      <c r="F144" s="33"/>
-    </row>
-    <row r="145" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="F145" s="33"/>
-    </row>
-    <row r="146" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="F146" s="33"/>
-    </row>
-    <row r="147" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="F147" s="33"/>
-    </row>
-    <row r="148" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C148" s="33"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="38"/>
-      <c r="H148" s="39"/>
-      <c r="I148" s="39"/>
-      <c r="J148" s="39"/>
-      <c r="K148" s="39"/>
-      <c r="L148" s="39"/>
-      <c r="M148" s="39"/>
-      <c r="N148" s="39"/>
-      <c r="O148" s="39"/>
-      <c r="P148" s="39"/>
-      <c r="Q148" s="39"/>
-      <c r="R148" s="39"/>
-      <c r="S148" s="39"/>
-      <c r="T148" s="39"/>
-      <c r="U148" s="39"/>
-      <c r="V148" s="39"/>
-      <c r="W148" s="39"/>
-      <c r="X148" s="39"/>
-      <c r="Y148" s="39"/>
-      <c r="Z148" s="40"/>
-    </row>
-    <row r="149" spans="1:26" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="B149" s="36" t="s">
+      <c r="C151" s="31"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="32"/>
+    </row>
+    <row r="152" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" s="31"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="32"/>
+    </row>
+    <row r="153" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C149" s="36"/>
-      <c r="D149" s="36"/>
-      <c r="E149" s="41"/>
-      <c r="F149" s="36"/>
-      <c r="G149" s="47"/>
-      <c r="H149" s="42"/>
-      <c r="I149" s="42"/>
-      <c r="J149" s="42"/>
-      <c r="K149" s="42"/>
-      <c r="L149" s="42"/>
-      <c r="M149" s="42"/>
-      <c r="N149" s="42"/>
-      <c r="O149" s="42"/>
-      <c r="P149" s="42"/>
-      <c r="Q149" s="42"/>
-      <c r="R149" s="42"/>
-      <c r="S149" s="42"/>
-      <c r="T149" s="42"/>
-      <c r="U149" s="42"/>
-      <c r="V149" s="42"/>
-      <c r="W149" s="42"/>
-      <c r="X149" s="42"/>
-      <c r="Y149" s="42"/>
-      <c r="Z149" s="42"/>
-    </row>
-    <row r="150" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="B150" s="43" t="s">
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="32"/>
+    </row>
+    <row r="154" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B154" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C150" s="43"/>
-      <c r="D150" s="43"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="34"/>
-    </row>
-    <row r="151" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B151" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C151" s="43"/>
-      <c r="D151" s="43"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="34"/>
-    </row>
-    <row r="152" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B152" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C152" s="43"/>
-      <c r="D152" s="43"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="34"/>
-    </row>
-    <row r="153" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B153" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C153" s="43"/>
-      <c r="D153" s="43"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="34"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="B154" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="34"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="31"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="32"/>
     </row>
     <row r="155" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B155" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="34"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="34"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="32"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B156" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="34"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="32"/>
     </row>
     <row r="157" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B157" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="34"/>
-      <c r="F157" s="33"/>
-      <c r="G157" s="34"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="32"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B158" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="34"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="34"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="31"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="32"/>
     </row>
     <row r="159" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="33"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="34"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="34"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="32"/>
     </row>
     <row r="160" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B160" s="33"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="34"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="34"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="32"/>
     </row>
     <row r="161" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="33"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="34"/>
-      <c r="F161" s="33"/>
-      <c r="G161" s="34"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="32"/>
     </row>
     <row r="162" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B162" s="33"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
-      <c r="E162" s="34"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="34"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="31"/>
+      <c r="D162" s="31"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="31"/>
+      <c r="G162" s="32"/>
     </row>
     <row r="163" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B163" s="33"/>
-      <c r="C163" s="33"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="34"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="34"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="32"/>
     </row>
     <row r="164" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B164" s="33"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="34"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="34"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="31"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="32"/>
     </row>
     <row r="165" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B165" s="33"/>
-      <c r="C165" s="33"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="34"/>
-      <c r="F165" s="33"/>
-      <c r="G165" s="34"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="31"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="32"/>
     </row>
     <row r="166" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B166" s="33"/>
-      <c r="C166" s="33"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="34"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="34"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
+      <c r="D166" s="31"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="32"/>
     </row>
     <row r="167" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B167" s="33"/>
-      <c r="C167" s="33"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="34"/>
-      <c r="F167" s="33"/>
-      <c r="G167" s="34"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="32"/>
     </row>
     <row r="168" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="34"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="31"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="32"/>
     </row>
     <row r="169" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="34"/>
-      <c r="F169" s="33"/>
-      <c r="G169" s="34"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="31"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="32"/>
     </row>
     <row r="170" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B170" s="33"/>
-      <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="34"/>
-      <c r="F170" s="33"/>
-      <c r="G170" s="34"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="32"/>
     </row>
     <row r="171" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B171" s="33"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="34"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="34"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="31"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="32"/>
     </row>
     <row r="172" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B172" s="33"/>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="34"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="34"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="31"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="32"/>
     </row>
     <row r="173" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B173" s="33"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="34"/>
-      <c r="F173" s="33"/>
-      <c r="G173" s="34"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="31"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="31"/>
+      <c r="G173" s="32"/>
     </row>
     <row r="174" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B174" s="33"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="34"/>
-      <c r="F174" s="33"/>
-      <c r="G174" s="34"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="31"/>
+      <c r="D174" s="31"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="31"/>
+      <c r="G174" s="32"/>
     </row>
     <row r="175" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="34"/>
-      <c r="F175" s="33"/>
-      <c r="G175" s="34"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="31"/>
+      <c r="G175" s="32"/>
     </row>
     <row r="176" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B176" s="33"/>
-      <c r="C176" s="33"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="34"/>
-      <c r="F176" s="33"/>
-      <c r="G176" s="34"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="31"/>
+      <c r="D176" s="31"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="31"/>
+      <c r="G176" s="32"/>
     </row>
     <row r="177" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B177" s="33"/>
-      <c r="C177" s="33"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="34"/>
-      <c r="F177" s="33"/>
-      <c r="G177" s="34"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="31"/>
+      <c r="D177" s="31"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="31"/>
+      <c r="G177" s="32"/>
     </row>
     <row r="178" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B178" s="33"/>
-      <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="34"/>
-      <c r="F178" s="33"/>
-      <c r="G178" s="34"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="32"/>
     </row>
     <row r="179" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B179" s="33"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="34"/>
-      <c r="F179" s="33"/>
-      <c r="G179" s="34"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="32"/>
     </row>
     <row r="180" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B180" s="33"/>
-      <c r="C180" s="33"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="34"/>
-      <c r="F180" s="33"/>
-      <c r="G180" s="34"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="32"/>
     </row>
     <row r="181" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B181" s="33"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="34"/>
-      <c r="F181" s="33"/>
-      <c r="G181" s="34"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="31"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="32"/>
     </row>
     <row r="182" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="34"/>
-      <c r="F182" s="33"/>
-      <c r="G182" s="34"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="31"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="31"/>
+      <c r="G182" s="32"/>
     </row>
     <row r="183" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B183" s="33"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="33"/>
-      <c r="G183" s="34"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="31"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="31"/>
+      <c r="G183" s="32"/>
     </row>
     <row r="184" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B184" s="33"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="34"/>
-      <c r="F184" s="33"/>
-      <c r="G184" s="34"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="31"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="31"/>
+      <c r="G184" s="32"/>
     </row>
     <row r="185" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B185" s="33"/>
-      <c r="C185" s="33"/>
-      <c r="D185" s="33"/>
-      <c r="E185" s="34"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="34"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="31"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="31"/>
+      <c r="G185" s="32"/>
     </row>
     <row r="186" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B186" s="33"/>
-      <c r="C186" s="33"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="34"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="34"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="31"/>
+      <c r="G186" s="32"/>
     </row>
     <row r="187" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B187" s="33"/>
-      <c r="C187" s="33"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="34"/>
-      <c r="F187" s="33"/>
-      <c r="G187" s="34"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="31"/>
+      <c r="G187" s="32"/>
     </row>
     <row r="188" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B188" s="33"/>
-      <c r="C188" s="33"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="34"/>
-      <c r="F188" s="33"/>
-      <c r="G188" s="34"/>
+      <c r="B188" s="32"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="31"/>
+      <c r="G188" s="32"/>
     </row>
     <row r="189" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B189" s="33"/>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="34"/>
-      <c r="F189" s="33"/>
-      <c r="G189" s="34"/>
+      <c r="B189" s="32"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="31"/>
+      <c r="G189" s="32"/>
     </row>
     <row r="190" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B190" s="33"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="34"/>
-      <c r="F190" s="33"/>
-      <c r="G190" s="34"/>
+      <c r="B190" s="32"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="32"/>
+      <c r="E190" s="32"/>
+      <c r="F190" s="31"/>
+      <c r="G190" s="32"/>
     </row>
     <row r="191" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B191" s="33"/>
-      <c r="C191" s="33"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="34"/>
-      <c r="F191" s="33"/>
-      <c r="G191" s="34"/>
+      <c r="B191" s="32"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="32"/>
+      <c r="E191" s="32"/>
+      <c r="F191" s="32"/>
+      <c r="G191" s="32"/>
     </row>
     <row r="192" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B192" s="34"/>
-      <c r="C192" s="34"/>
-      <c r="D192" s="34"/>
-      <c r="E192" s="34"/>
-      <c r="F192" s="33"/>
-      <c r="G192" s="34"/>
+      <c r="B192" s="32"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="32"/>
     </row>
     <row r="193" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B193" s="34"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="34"/>
-      <c r="F193" s="33"/>
-      <c r="G193" s="34"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="32"/>
     </row>
     <row r="194" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B194" s="34"/>
-      <c r="C194" s="34"/>
-      <c r="D194" s="34"/>
-      <c r="E194" s="34"/>
-      <c r="F194" s="33"/>
-      <c r="G194" s="34"/>
+      <c r="B194" s="32"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="32"/>
+      <c r="E194" s="32"/>
+      <c r="F194" s="32"/>
+      <c r="G194" s="32"/>
     </row>
     <row r="195" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B195" s="34"/>
-      <c r="C195" s="34"/>
-      <c r="D195" s="34"/>
-      <c r="E195" s="34"/>
-      <c r="F195" s="34"/>
-      <c r="G195" s="34"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="32"/>
+      <c r="F195" s="32"/>
+      <c r="G195" s="32"/>
     </row>
     <row r="196" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B196" s="34"/>
-      <c r="C196" s="34"/>
-      <c r="D196" s="34"/>
-      <c r="E196" s="34"/>
-      <c r="F196" s="34"/>
-      <c r="G196" s="34"/>
+      <c r="B196" s="32"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="32"/>
+      <c r="F196" s="32"/>
+      <c r="G196" s="32"/>
     </row>
     <row r="197" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B197" s="34"/>
-      <c r="C197" s="34"/>
-      <c r="D197" s="34"/>
-      <c r="E197" s="34"/>
-      <c r="F197" s="34"/>
-      <c r="G197" s="34"/>
+      <c r="B197" s="32"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="32"/>
+      <c r="G197" s="32"/>
     </row>
     <row r="198" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B198" s="34"/>
-      <c r="C198" s="34"/>
-      <c r="D198" s="34"/>
-      <c r="E198" s="34"/>
-      <c r="F198" s="34"/>
-      <c r="G198" s="34"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32"/>
     </row>
     <row r="199" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B199" s="34"/>
-      <c r="C199" s="34"/>
-      <c r="D199" s="34"/>
-      <c r="E199" s="34"/>
-      <c r="F199" s="34"/>
-      <c r="G199" s="34"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32"/>
     </row>
     <row r="200" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B200" s="34"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="34"/>
-      <c r="E200" s="34"/>
-      <c r="F200" s="34"/>
-      <c r="G200" s="34"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="32"/>
     </row>
     <row r="201" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B201" s="34"/>
-      <c r="C201" s="34"/>
-      <c r="D201" s="34"/>
-      <c r="E201" s="34"/>
-      <c r="F201" s="34"/>
-      <c r="G201" s="34"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="32"/>
     </row>
     <row r="202" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B202" s="34"/>
-      <c r="C202" s="34"/>
-      <c r="D202" s="34"/>
-      <c r="E202" s="34"/>
-      <c r="F202" s="34"/>
-      <c r="G202" s="34"/>
+      <c r="B202" s="32"/>
+      <c r="C202" s="32"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="32"/>
+      <c r="F202" s="32"/>
+      <c r="G202" s="32"/>
     </row>
     <row r="203" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B203" s="34"/>
-      <c r="C203" s="34"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="34"/>
-      <c r="F203" s="34"/>
-      <c r="G203" s="34"/>
+      <c r="B203" s="32"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="32"/>
+      <c r="F203" s="32"/>
+      <c r="G203" s="32"/>
     </row>
     <row r="204" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B204" s="34"/>
-      <c r="C204" s="34"/>
-      <c r="D204" s="34"/>
-      <c r="E204" s="34"/>
-      <c r="F204" s="34"/>
-      <c r="G204" s="34"/>
+      <c r="B204" s="32"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="32"/>
+      <c r="G204" s="32"/>
     </row>
     <row r="205" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B205" s="34"/>
-      <c r="C205" s="34"/>
-      <c r="D205" s="34"/>
-      <c r="E205" s="34"/>
-      <c r="F205" s="34"/>
-      <c r="G205" s="34"/>
+      <c r="B205" s="32"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="32"/>
+      <c r="F205" s="32"/>
+      <c r="G205" s="32"/>
     </row>
     <row r="206" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B206" s="34"/>
-      <c r="C206" s="34"/>
-      <c r="D206" s="34"/>
-      <c r="E206" s="34"/>
-      <c r="F206" s="34"/>
-      <c r="G206" s="34"/>
+      <c r="B206" s="32"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="32"/>
+      <c r="F206" s="32"/>
+      <c r="G206" s="32"/>
     </row>
     <row r="207" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B207" s="34"/>
-      <c r="C207" s="34"/>
-      <c r="D207" s="34"/>
-      <c r="E207" s="34"/>
-      <c r="F207" s="34"/>
-      <c r="G207" s="34"/>
+      <c r="B207" s="32"/>
+      <c r="C207" s="32"/>
+      <c r="D207" s="32"/>
+      <c r="E207" s="32"/>
+      <c r="F207" s="32"/>
+      <c r="G207" s="32"/>
     </row>
     <row r="208" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B208" s="34"/>
-      <c r="C208" s="34"/>
-      <c r="D208" s="34"/>
-      <c r="E208" s="34"/>
-      <c r="F208" s="34"/>
-      <c r="G208" s="34"/>
+      <c r="B208" s="32"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="32"/>
     </row>
     <row r="209" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B209" s="34"/>
-      <c r="C209" s="34"/>
-      <c r="D209" s="34"/>
-      <c r="E209" s="34"/>
-      <c r="F209" s="34"/>
-      <c r="G209" s="34"/>
+      <c r="B209" s="32"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32"/>
+      <c r="F209" s="32"/>
+      <c r="G209" s="32"/>
     </row>
     <row r="210" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B210" s="34"/>
-      <c r="C210" s="34"/>
-      <c r="D210" s="34"/>
-      <c r="E210" s="34"/>
-      <c r="F210" s="34"/>
-      <c r="G210" s="34"/>
+      <c r="B210" s="32"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="32"/>
+      <c r="E210" s="32"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="32"/>
     </row>
     <row r="211" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B211" s="34"/>
-      <c r="C211" s="34"/>
-      <c r="D211" s="34"/>
-      <c r="E211" s="34"/>
-      <c r="F211" s="34"/>
-      <c r="G211" s="34"/>
+      <c r="B211" s="32"/>
+      <c r="C211" s="32"/>
+      <c r="D211" s="32"/>
+      <c r="E211" s="32"/>
+      <c r="F211" s="32"/>
+      <c r="G211" s="32"/>
     </row>
     <row r="212" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B212" s="34"/>
-      <c r="C212" s="34"/>
-      <c r="D212" s="34"/>
-      <c r="E212" s="34"/>
-      <c r="F212" s="34"/>
-      <c r="G212" s="34"/>
+      <c r="B212" s="32"/>
+      <c r="C212" s="32"/>
+      <c r="D212" s="32"/>
+      <c r="E212" s="32"/>
+      <c r="F212" s="32"/>
+      <c r="G212" s="32"/>
     </row>
     <row r="213" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B213" s="34"/>
-      <c r="C213" s="34"/>
-      <c r="D213" s="34"/>
-      <c r="E213" s="34"/>
-      <c r="F213" s="34"/>
-      <c r="G213" s="34"/>
+      <c r="B213" s="32"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="32"/>
+      <c r="F213" s="32"/>
+      <c r="G213" s="32"/>
     </row>
     <row r="214" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B214" s="34"/>
-      <c r="C214" s="34"/>
-      <c r="D214" s="34"/>
-      <c r="E214" s="34"/>
-      <c r="F214" s="34"/>
-      <c r="G214" s="34"/>
+      <c r="B214" s="32"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="32"/>
+      <c r="F214" s="32"/>
+      <c r="G214" s="32"/>
     </row>
     <row r="215" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B215" s="34"/>
-      <c r="C215" s="34"/>
-      <c r="D215" s="34"/>
-      <c r="E215" s="34"/>
-      <c r="F215" s="34"/>
-      <c r="G215" s="34"/>
+      <c r="B215" s="32"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="32"/>
+      <c r="F215" s="32"/>
+      <c r="G215" s="32"/>
     </row>
     <row r="216" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B216" s="34"/>
-      <c r="C216" s="34"/>
-      <c r="D216" s="34"/>
-      <c r="E216" s="34"/>
-      <c r="F216" s="34"/>
-      <c r="G216" s="34"/>
+      <c r="B216" s="32"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="32"/>
     </row>
     <row r="217" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B217" s="34"/>
-      <c r="C217" s="34"/>
-      <c r="D217" s="34"/>
-      <c r="E217" s="34"/>
-      <c r="F217" s="34"/>
-      <c r="G217" s="34"/>
+      <c r="B217" s="32"/>
+      <c r="C217" s="32"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="32"/>
     </row>
     <row r="218" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B218" s="34"/>
-      <c r="C218" s="34"/>
-      <c r="D218" s="34"/>
-      <c r="E218" s="34"/>
-      <c r="F218" s="34"/>
-      <c r="G218" s="34"/>
+      <c r="B218" s="32"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="32"/>
+      <c r="G218" s="32"/>
     </row>
     <row r="219" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B219" s="34"/>
-      <c r="C219" s="34"/>
-      <c r="D219" s="34"/>
-      <c r="E219" s="34"/>
-      <c r="F219" s="34"/>
-      <c r="G219" s="34"/>
+      <c r="B219" s="32"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="32"/>
     </row>
     <row r="220" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B220" s="34"/>
-      <c r="C220" s="34"/>
-      <c r="D220" s="34"/>
-      <c r="E220" s="34"/>
-      <c r="F220" s="34"/>
-      <c r="G220" s="34"/>
+      <c r="B220" s="32"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="32"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="32"/>
     </row>
     <row r="221" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B221" s="34"/>
-      <c r="C221" s="34"/>
-      <c r="D221" s="34"/>
-      <c r="E221" s="34"/>
-      <c r="F221" s="34"/>
-      <c r="G221" s="34"/>
+      <c r="B221" s="32"/>
+      <c r="C221" s="32"/>
+      <c r="D221" s="32"/>
+      <c r="E221" s="32"/>
+      <c r="F221" s="32"/>
+      <c r="G221" s="32"/>
     </row>
     <row r="222" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B222" s="34"/>
-      <c r="C222" s="34"/>
-      <c r="D222" s="34"/>
-      <c r="E222" s="34"/>
-      <c r="F222" s="34"/>
-      <c r="G222" s="34"/>
+      <c r="B222" s="32"/>
+      <c r="C222" s="32"/>
+      <c r="D222" s="32"/>
+      <c r="E222" s="32"/>
+      <c r="F222" s="32"/>
+      <c r="G222" s="32"/>
     </row>
     <row r="223" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B223" s="34"/>
-      <c r="C223" s="34"/>
-      <c r="D223" s="34"/>
-      <c r="E223" s="34"/>
-      <c r="F223" s="34"/>
-      <c r="G223" s="34"/>
+      <c r="B223" s="32"/>
+      <c r="C223" s="32"/>
+      <c r="D223" s="32"/>
+      <c r="E223" s="32"/>
+      <c r="F223" s="32"/>
+      <c r="G223" s="32"/>
     </row>
     <row r="224" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B224" s="34"/>
-      <c r="C224" s="34"/>
-      <c r="D224" s="34"/>
-      <c r="E224" s="34"/>
-      <c r="F224" s="34"/>
-      <c r="G224" s="34"/>
+      <c r="B224" s="32"/>
+      <c r="C224" s="32"/>
+      <c r="D224" s="32"/>
+      <c r="E224" s="32"/>
+      <c r="F224" s="32"/>
+      <c r="G224" s="32"/>
     </row>
     <row r="225" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B225" s="34"/>
-      <c r="C225" s="34"/>
-      <c r="D225" s="34"/>
-      <c r="E225" s="34"/>
-      <c r="F225" s="34"/>
-      <c r="G225" s="34"/>
+      <c r="B225" s="32"/>
+      <c r="C225" s="32"/>
+      <c r="D225" s="32"/>
+      <c r="E225" s="32"/>
+      <c r="F225" s="32"/>
+      <c r="G225" s="32"/>
     </row>
     <row r="226" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B226" s="34"/>
-      <c r="C226" s="34"/>
-      <c r="D226" s="34"/>
-      <c r="E226" s="34"/>
-      <c r="F226" s="34"/>
-      <c r="G226" s="34"/>
+      <c r="B226" s="32"/>
+      <c r="C226" s="32"/>
+      <c r="D226" s="32"/>
+      <c r="E226" s="32"/>
+      <c r="F226" s="32"/>
+      <c r="G226" s="32"/>
     </row>
     <row r="227" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B227" s="34"/>
-      <c r="C227" s="34"/>
-      <c r="D227" s="34"/>
-      <c r="E227" s="34"/>
-      <c r="F227" s="34"/>
-      <c r="G227" s="34"/>
+      <c r="B227" s="32"/>
+      <c r="C227" s="32"/>
+      <c r="D227" s="32"/>
+      <c r="E227" s="32"/>
+      <c r="F227" s="32"/>
+      <c r="G227" s="32"/>
     </row>
     <row r="228" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B228" s="34"/>
-      <c r="C228" s="34"/>
-      <c r="D228" s="34"/>
-      <c r="E228" s="34"/>
-      <c r="F228" s="34"/>
-      <c r="G228" s="34"/>
+      <c r="B228" s="32"/>
+      <c r="C228" s="32"/>
+      <c r="D228" s="32"/>
+      <c r="E228" s="32"/>
+      <c r="F228" s="32"/>
+      <c r="G228" s="32"/>
     </row>
     <row r="229" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B229" s="34"/>
-      <c r="C229" s="34"/>
-      <c r="D229" s="34"/>
-      <c r="E229" s="34"/>
-      <c r="F229" s="34"/>
-      <c r="G229" s="34"/>
+      <c r="B229" s="32"/>
+      <c r="C229" s="32"/>
+      <c r="D229" s="32"/>
+      <c r="E229" s="32"/>
+      <c r="F229" s="32"/>
+      <c r="G229" s="32"/>
     </row>
     <row r="230" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B230" s="34"/>
-      <c r="C230" s="34"/>
-      <c r="D230" s="34"/>
-      <c r="E230" s="34"/>
-      <c r="F230" s="34"/>
-      <c r="G230" s="34"/>
+      <c r="B230" s="32"/>
+      <c r="C230" s="32"/>
+      <c r="D230" s="32"/>
+      <c r="E230" s="32"/>
+      <c r="F230" s="32"/>
+      <c r="G230" s="32"/>
     </row>
     <row r="231" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B231" s="34"/>
-      <c r="C231" s="34"/>
-      <c r="D231" s="34"/>
-      <c r="E231" s="34"/>
-      <c r="F231" s="34"/>
-      <c r="G231" s="34"/>
+      <c r="B231" s="32"/>
+      <c r="C231" s="32"/>
+      <c r="D231" s="32"/>
+      <c r="E231" s="32"/>
+      <c r="F231" s="32"/>
+      <c r="G231" s="32"/>
     </row>
     <row r="232" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B232" s="34"/>
-      <c r="C232" s="34"/>
-      <c r="D232" s="34"/>
-      <c r="E232" s="34"/>
-      <c r="F232" s="34"/>
-      <c r="G232" s="34"/>
+      <c r="B232" s="32"/>
+      <c r="C232" s="32"/>
+      <c r="D232" s="32"/>
+      <c r="E232" s="32"/>
+      <c r="F232" s="32"/>
+      <c r="G232" s="32"/>
     </row>
     <row r="233" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B233" s="34"/>
-      <c r="C233" s="34"/>
-      <c r="D233" s="34"/>
-      <c r="E233" s="34"/>
-      <c r="F233" s="34"/>
-      <c r="G233" s="34"/>
+      <c r="B233" s="32"/>
+      <c r="C233" s="32"/>
+      <c r="D233" s="32"/>
+      <c r="E233" s="32"/>
+      <c r="F233" s="32"/>
+      <c r="G233" s="32"/>
     </row>
     <row r="234" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B234" s="34"/>
-      <c r="C234" s="34"/>
-      <c r="D234" s="34"/>
-      <c r="E234" s="34"/>
-      <c r="F234" s="34"/>
-      <c r="G234" s="34"/>
+      <c r="B234" s="32"/>
+      <c r="C234" s="32"/>
+      <c r="D234" s="32"/>
+      <c r="E234" s="32"/>
+      <c r="F234" s="32"/>
+      <c r="G234" s="32"/>
     </row>
     <row r="235" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B235" s="34"/>
-      <c r="C235" s="34"/>
-      <c r="D235" s="34"/>
-      <c r="E235" s="34"/>
-      <c r="F235" s="34"/>
-      <c r="G235" s="34"/>
+      <c r="B235" s="32"/>
+      <c r="C235" s="32"/>
+      <c r="D235" s="32"/>
+      <c r="E235" s="32"/>
+      <c r="F235" s="32"/>
+      <c r="G235" s="32"/>
     </row>
     <row r="236" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B236" s="34"/>
-      <c r="C236" s="34"/>
-      <c r="D236" s="34"/>
-      <c r="E236" s="34"/>
-      <c r="F236" s="34"/>
-      <c r="G236" s="34"/>
+      <c r="B236" s="32"/>
+      <c r="C236" s="32"/>
+      <c r="D236" s="32"/>
+      <c r="E236" s="32"/>
+      <c r="F236" s="32"/>
+      <c r="G236" s="32"/>
     </row>
     <row r="237" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B237" s="34"/>
-      <c r="C237" s="34"/>
-      <c r="D237" s="34"/>
-      <c r="E237" s="34"/>
-      <c r="F237" s="34"/>
-      <c r="G237" s="34"/>
+      <c r="B237" s="32"/>
+      <c r="C237" s="32"/>
+      <c r="D237" s="32"/>
+      <c r="E237" s="32"/>
+      <c r="F237" s="32"/>
+      <c r="G237" s="32"/>
     </row>
     <row r="238" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B238" s="34"/>
-      <c r="C238" s="34"/>
-      <c r="D238" s="34"/>
-      <c r="E238" s="34"/>
-      <c r="F238" s="34"/>
-      <c r="G238" s="34"/>
+      <c r="B238" s="32"/>
+      <c r="C238" s="32"/>
+      <c r="D238" s="32"/>
+      <c r="E238" s="32"/>
+      <c r="F238" s="32"/>
+      <c r="G238" s="32"/>
     </row>
     <row r="239" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B239" s="34"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="34"/>
-      <c r="E239" s="34"/>
-      <c r="F239" s="34"/>
-      <c r="G239" s="34"/>
+      <c r="B239" s="32"/>
+      <c r="C239" s="32"/>
+      <c r="D239" s="32"/>
+      <c r="E239" s="32"/>
+      <c r="F239" s="32"/>
+      <c r="G239" s="32"/>
     </row>
     <row r="240" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B240" s="34"/>
-      <c r="C240" s="34"/>
-      <c r="D240" s="34"/>
-      <c r="E240" s="34"/>
-      <c r="F240" s="34"/>
-      <c r="G240" s="34"/>
+      <c r="B240" s="32"/>
+      <c r="C240" s="32"/>
+      <c r="D240" s="32"/>
+      <c r="E240" s="32"/>
+      <c r="F240" s="32"/>
+      <c r="G240" s="32"/>
     </row>
     <row r="241" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B241" s="34"/>
-      <c r="C241" s="34"/>
-      <c r="D241" s="34"/>
-      <c r="E241" s="34"/>
-      <c r="F241" s="34"/>
-      <c r="G241" s="34"/>
+      <c r="B241" s="32"/>
+      <c r="C241" s="32"/>
+      <c r="D241" s="32"/>
+      <c r="E241" s="32"/>
+      <c r="F241" s="32"/>
+      <c r="G241" s="32"/>
     </row>
     <row r="242" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B242" s="34"/>
-      <c r="C242" s="34"/>
-      <c r="D242" s="34"/>
-      <c r="E242" s="34"/>
-      <c r="F242" s="34"/>
-      <c r="G242" s="34"/>
+      <c r="B242" s="32"/>
+      <c r="C242" s="32"/>
+      <c r="D242" s="32"/>
+      <c r="E242" s="32"/>
+      <c r="F242" s="32"/>
+      <c r="G242" s="32"/>
     </row>
     <row r="243" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B243" s="34"/>
-      <c r="C243" s="34"/>
-      <c r="D243" s="34"/>
-      <c r="E243" s="34"/>
-      <c r="F243" s="34"/>
-      <c r="G243" s="34"/>
+      <c r="B243" s="32"/>
+      <c r="C243" s="32"/>
+      <c r="D243" s="32"/>
+      <c r="E243" s="32"/>
+      <c r="F243" s="32"/>
+      <c r="G243" s="32"/>
     </row>
     <row r="244" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B244" s="34"/>
-      <c r="C244" s="34"/>
-      <c r="D244" s="34"/>
-      <c r="E244" s="34"/>
-      <c r="F244" s="34"/>
-      <c r="G244" s="34"/>
+      <c r="B244" s="32"/>
+      <c r="C244" s="32"/>
+      <c r="D244" s="32"/>
+      <c r="E244" s="32"/>
+      <c r="F244" s="32"/>
+      <c r="G244" s="32"/>
     </row>
     <row r="245" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B245" s="34"/>
-      <c r="C245" s="34"/>
-      <c r="D245" s="34"/>
-      <c r="E245" s="34"/>
-      <c r="F245" s="34"/>
-      <c r="G245" s="34"/>
+      <c r="B245" s="32"/>
+      <c r="C245" s="32"/>
+      <c r="D245" s="32"/>
+      <c r="E245" s="32"/>
+      <c r="F245" s="32"/>
+      <c r="G245" s="32"/>
     </row>
     <row r="246" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B246" s="34"/>
-      <c r="C246" s="34"/>
-      <c r="D246" s="34"/>
-      <c r="E246" s="34"/>
-      <c r="F246" s="34"/>
-      <c r="G246" s="34"/>
+      <c r="B246" s="32"/>
+      <c r="C246" s="32"/>
+      <c r="D246" s="32"/>
+      <c r="E246" s="32"/>
+      <c r="F246" s="32"/>
+      <c r="G246" s="32"/>
     </row>
     <row r="247" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B247" s="34"/>
-      <c r="C247" s="34"/>
-      <c r="D247" s="34"/>
-      <c r="E247" s="34"/>
-      <c r="F247" s="34"/>
-      <c r="G247" s="34"/>
+      <c r="B247" s="32"/>
+      <c r="C247" s="32"/>
+      <c r="D247" s="32"/>
+      <c r="E247" s="32"/>
+      <c r="F247" s="32"/>
+      <c r="G247" s="32"/>
     </row>
     <row r="248" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B248" s="34"/>
-      <c r="C248" s="34"/>
-      <c r="D248" s="34"/>
-      <c r="E248" s="34"/>
-      <c r="F248" s="34"/>
-      <c r="G248" s="34"/>
+      <c r="B248" s="32"/>
+      <c r="C248" s="32"/>
+      <c r="D248" s="32"/>
+      <c r="E248" s="32"/>
+      <c r="F248" s="32"/>
+      <c r="G248" s="32"/>
     </row>
     <row r="249" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B249" s="34"/>
-      <c r="C249" s="34"/>
-      <c r="D249" s="34"/>
-      <c r="E249" s="34"/>
-      <c r="F249" s="34"/>
-      <c r="G249" s="34"/>
+      <c r="B249" s="32"/>
+      <c r="C249" s="32"/>
+      <c r="D249" s="32"/>
+      <c r="E249" s="32"/>
+      <c r="F249" s="32"/>
+      <c r="G249" s="32"/>
     </row>
     <row r="250" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B250" s="34"/>
-      <c r="C250" s="34"/>
-      <c r="D250" s="34"/>
-      <c r="E250" s="34"/>
-      <c r="F250" s="34"/>
-      <c r="G250" s="34"/>
+      <c r="B250" s="32"/>
+      <c r="C250" s="32"/>
+      <c r="D250" s="32"/>
+      <c r="E250" s="32"/>
+      <c r="F250" s="32"/>
+      <c r="G250" s="32"/>
     </row>
     <row r="251" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B251" s="34"/>
-      <c r="C251" s="34"/>
-      <c r="D251" s="34"/>
-      <c r="E251" s="34"/>
-      <c r="F251" s="34"/>
-      <c r="G251" s="34"/>
+      <c r="B251" s="32"/>
+      <c r="C251" s="32"/>
+      <c r="D251" s="32"/>
+      <c r="E251" s="32"/>
+      <c r="F251" s="32"/>
+      <c r="G251" s="32"/>
     </row>
     <row r="252" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B252" s="34"/>
-      <c r="C252" s="34"/>
-      <c r="D252" s="34"/>
-      <c r="E252" s="34"/>
-      <c r="F252" s="34"/>
-      <c r="G252" s="34"/>
+      <c r="B252" s="32"/>
+      <c r="C252" s="32"/>
+      <c r="D252" s="32"/>
+      <c r="E252" s="32"/>
+      <c r="F252" s="32"/>
+      <c r="G252" s="32"/>
     </row>
     <row r="253" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B253" s="34"/>
-      <c r="C253" s="34"/>
-      <c r="D253" s="34"/>
-      <c r="E253" s="34"/>
-      <c r="F253" s="34"/>
-      <c r="G253" s="34"/>
+      <c r="B253" s="32"/>
+      <c r="C253" s="32"/>
+      <c r="D253" s="32"/>
+      <c r="E253" s="32"/>
+      <c r="F253" s="32"/>
+      <c r="G253" s="32"/>
     </row>
     <row r="254" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B254" s="34"/>
-      <c r="C254" s="34"/>
-      <c r="D254" s="34"/>
-      <c r="E254" s="34"/>
-      <c r="F254" s="34"/>
-      <c r="G254" s="34"/>
+      <c r="B254" s="32"/>
+      <c r="C254" s="32"/>
+      <c r="D254" s="32"/>
+      <c r="E254" s="32"/>
+      <c r="F254" s="32"/>
+      <c r="G254" s="32"/>
     </row>
     <row r="255" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B255" s="34"/>
-      <c r="C255" s="34"/>
-      <c r="D255" s="34"/>
-      <c r="E255" s="34"/>
-      <c r="F255" s="34"/>
-      <c r="G255" s="34"/>
+      <c r="B255" s="32"/>
+      <c r="C255" s="32"/>
+      <c r="D255" s="32"/>
+      <c r="E255" s="32"/>
+      <c r="F255" s="32"/>
+      <c r="G255" s="32"/>
     </row>
     <row r="256" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B256" s="34"/>
-      <c r="C256" s="34"/>
-      <c r="D256" s="34"/>
-      <c r="E256" s="34"/>
-      <c r="F256" s="34"/>
-      <c r="G256" s="34"/>
+      <c r="B256" s="32"/>
+      <c r="C256" s="32"/>
+      <c r="D256" s="32"/>
+      <c r="E256" s="32"/>
+      <c r="F256" s="32"/>
+      <c r="G256" s="32"/>
     </row>
     <row r="257" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B257" s="34"/>
-      <c r="C257" s="34"/>
-      <c r="D257" s="34"/>
-      <c r="E257" s="34"/>
-      <c r="F257" s="34"/>
-      <c r="G257" s="34"/>
+      <c r="B257" s="32"/>
+      <c r="C257" s="32"/>
+      <c r="D257" s="32"/>
+      <c r="E257" s="32"/>
+      <c r="F257" s="32"/>
+      <c r="G257" s="32"/>
     </row>
     <row r="258" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B258" s="34"/>
-      <c r="C258" s="34"/>
-      <c r="D258" s="34"/>
-      <c r="E258" s="34"/>
-      <c r="F258" s="34"/>
-      <c r="G258" s="34"/>
+      <c r="B258" s="32"/>
+      <c r="C258" s="32"/>
+      <c r="D258" s="32"/>
+      <c r="E258" s="32"/>
+      <c r="F258" s="32"/>
+      <c r="G258" s="32"/>
     </row>
     <row r="259" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B259" s="34"/>
-      <c r="C259" s="34"/>
-      <c r="D259" s="34"/>
-      <c r="E259" s="34"/>
-      <c r="F259" s="34"/>
-      <c r="G259" s="34"/>
+      <c r="B259" s="32"/>
+      <c r="C259" s="32"/>
+      <c r="D259" s="32"/>
+      <c r="E259" s="32"/>
+      <c r="F259" s="32"/>
+      <c r="G259" s="32"/>
     </row>
     <row r="260" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B260" s="34"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="34"/>
-      <c r="E260" s="34"/>
-      <c r="F260" s="34"/>
-      <c r="G260" s="34"/>
+      <c r="B260" s="32"/>
+      <c r="C260" s="32"/>
+      <c r="D260" s="32"/>
+      <c r="E260" s="32"/>
+      <c r="F260" s="32"/>
+      <c r="G260" s="32"/>
     </row>
     <row r="261" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B261" s="34"/>
-      <c r="C261" s="34"/>
-      <c r="D261" s="34"/>
-      <c r="E261" s="34"/>
-      <c r="F261" s="34"/>
-      <c r="G261" s="34"/>
+      <c r="B261" s="32"/>
+      <c r="C261" s="32"/>
+      <c r="D261" s="32"/>
+      <c r="E261" s="32"/>
+      <c r="F261" s="32"/>
+      <c r="G261" s="32"/>
     </row>
     <row r="262" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B262" s="34"/>
-      <c r="C262" s="34"/>
-      <c r="D262" s="34"/>
-      <c r="E262" s="34"/>
-      <c r="F262" s="34"/>
-      <c r="G262" s="34"/>
+      <c r="B262" s="32"/>
+      <c r="C262" s="32"/>
+      <c r="D262" s="32"/>
+      <c r="E262" s="32"/>
+      <c r="F262" s="32"/>
+      <c r="G262" s="32"/>
     </row>
     <row r="263" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B263" s="34"/>
-      <c r="C263" s="34"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
-      <c r="F263" s="34"/>
-      <c r="G263" s="34"/>
+      <c r="B263" s="32"/>
+      <c r="C263" s="32"/>
+      <c r="D263" s="32"/>
+      <c r="E263" s="32"/>
+      <c r="F263" s="32"/>
+      <c r="G263" s="32"/>
     </row>
     <row r="264" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B264" s="34"/>
-      <c r="C264" s="34"/>
-      <c r="D264" s="34"/>
-      <c r="E264" s="34"/>
-      <c r="F264" s="34"/>
-      <c r="G264" s="34"/>
+      <c r="B264" s="32"/>
+      <c r="C264" s="32"/>
+      <c r="D264" s="32"/>
+      <c r="E264" s="32"/>
+      <c r="F264" s="32"/>
+      <c r="G264" s="32"/>
     </row>
     <row r="265" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B265" s="34"/>
-      <c r="C265" s="34"/>
-      <c r="D265" s="34"/>
-      <c r="E265" s="34"/>
-      <c r="F265" s="34"/>
-      <c r="G265" s="34"/>
+      <c r="B265" s="32"/>
+      <c r="C265" s="32"/>
+      <c r="D265" s="32"/>
+      <c r="E265" s="32"/>
+      <c r="F265" s="32"/>
+      <c r="G265" s="32"/>
     </row>
     <row r="266" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B266" s="34"/>
-      <c r="C266" s="34"/>
-      <c r="D266" s="34"/>
-      <c r="E266" s="34"/>
-      <c r="F266" s="34"/>
-      <c r="G266" s="34"/>
+      <c r="B266" s="32"/>
+      <c r="C266" s="32"/>
+      <c r="D266" s="32"/>
+      <c r="E266" s="32"/>
+      <c r="F266" s="32"/>
+      <c r="G266" s="32"/>
     </row>
     <row r="267" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B267" s="34"/>
-      <c r="C267" s="34"/>
-      <c r="D267" s="34"/>
-      <c r="E267" s="34"/>
-      <c r="F267" s="34"/>
-      <c r="G267" s="34"/>
+      <c r="B267" s="32"/>
+      <c r="C267" s="32"/>
+      <c r="D267" s="32"/>
+      <c r="E267" s="32"/>
+      <c r="F267" s="32"/>
+      <c r="G267" s="32"/>
     </row>
     <row r="268" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B268" s="34"/>
-      <c r="C268" s="34"/>
-      <c r="D268" s="34"/>
-      <c r="E268" s="34"/>
-      <c r="F268" s="34"/>
-      <c r="G268" s="34"/>
+      <c r="B268" s="32"/>
+      <c r="C268" s="32"/>
+      <c r="D268" s="32"/>
+      <c r="E268" s="32"/>
+      <c r="F268" s="32"/>
+      <c r="G268" s="32"/>
     </row>
     <row r="269" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B269" s="34"/>
-      <c r="C269" s="34"/>
-      <c r="D269" s="34"/>
-      <c r="E269" s="34"/>
-      <c r="F269" s="34"/>
-      <c r="G269" s="34"/>
+      <c r="B269" s="32"/>
+      <c r="C269" s="32"/>
+      <c r="D269" s="32"/>
+      <c r="E269" s="32"/>
+      <c r="F269" s="32"/>
+      <c r="G269" s="32"/>
     </row>
     <row r="270" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B270" s="34"/>
-      <c r="C270" s="34"/>
-      <c r="D270" s="34"/>
-      <c r="E270" s="34"/>
-      <c r="F270" s="34"/>
-      <c r="G270" s="34"/>
+      <c r="B270" s="32"/>
+      <c r="C270" s="32"/>
+      <c r="D270" s="32"/>
+      <c r="E270" s="32"/>
+      <c r="F270" s="32"/>
+      <c r="G270" s="32"/>
     </row>
     <row r="271" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B271" s="34"/>
-      <c r="C271" s="34"/>
-      <c r="D271" s="34"/>
-      <c r="E271" s="34"/>
-      <c r="F271" s="34"/>
-      <c r="G271" s="34"/>
+      <c r="B271" s="32"/>
+      <c r="C271" s="32"/>
+      <c r="D271" s="32"/>
+      <c r="E271" s="32"/>
+      <c r="F271" s="32"/>
+      <c r="G271" s="32"/>
     </row>
     <row r="272" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B272" s="34"/>
-      <c r="C272" s="34"/>
-      <c r="D272" s="34"/>
-      <c r="E272" s="34"/>
-      <c r="F272" s="34"/>
-      <c r="G272" s="34"/>
+      <c r="B272" s="32"/>
+      <c r="C272" s="32"/>
+      <c r="D272" s="32"/>
+      <c r="E272" s="32"/>
+      <c r="F272" s="32"/>
+      <c r="G272" s="32"/>
     </row>
     <row r="273" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B273" s="34"/>
-      <c r="C273" s="34"/>
-      <c r="D273" s="34"/>
-      <c r="E273" s="34"/>
-      <c r="F273" s="34"/>
-      <c r="G273" s="34"/>
+      <c r="B273" s="32"/>
+      <c r="C273" s="32"/>
+      <c r="D273" s="32"/>
+      <c r="E273" s="32"/>
+      <c r="F273" s="32"/>
+      <c r="G273" s="32"/>
     </row>
     <row r="274" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B274" s="34"/>
-      <c r="C274" s="34"/>
-      <c r="D274" s="34"/>
-      <c r="E274" s="34"/>
-      <c r="F274" s="34"/>
-      <c r="G274" s="34"/>
+      <c r="B274" s="32"/>
+      <c r="C274" s="32"/>
+      <c r="D274" s="32"/>
+      <c r="E274" s="32"/>
+      <c r="F274" s="32"/>
+      <c r="G274" s="32"/>
     </row>
     <row r="275" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B275" s="34"/>
-      <c r="C275" s="34"/>
-      <c r="D275" s="34"/>
-      <c r="E275" s="34"/>
-      <c r="F275" s="34"/>
-      <c r="G275" s="34"/>
+      <c r="B275" s="32"/>
+      <c r="C275" s="32"/>
+      <c r="D275" s="32"/>
+      <c r="E275" s="32"/>
+      <c r="F275" s="32"/>
+      <c r="G275" s="32"/>
     </row>
     <row r="276" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B276" s="34"/>
-      <c r="C276" s="34"/>
-      <c r="D276" s="34"/>
-      <c r="E276" s="34"/>
-      <c r="F276" s="34"/>
-      <c r="G276" s="34"/>
+      <c r="B276" s="32"/>
+      <c r="C276" s="32"/>
+      <c r="D276" s="32"/>
+      <c r="E276" s="32"/>
+      <c r="F276" s="32"/>
+      <c r="G276" s="32"/>
     </row>
     <row r="277" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B277" s="34"/>
-      <c r="C277" s="34"/>
-      <c r="D277" s="34"/>
-      <c r="E277" s="34"/>
-      <c r="F277" s="34"/>
-      <c r="G277" s="34"/>
+      <c r="B277" s="32"/>
+      <c r="C277" s="32"/>
+      <c r="D277" s="32"/>
+      <c r="E277" s="32"/>
+      <c r="F277" s="32"/>
+      <c r="G277" s="32"/>
     </row>
     <row r="278" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B278" s="34"/>
-      <c r="C278" s="34"/>
-      <c r="D278" s="34"/>
-      <c r="E278" s="34"/>
-      <c r="F278" s="34"/>
-      <c r="G278" s="34"/>
+      <c r="B278" s="32"/>
+      <c r="C278" s="32"/>
+      <c r="D278" s="32"/>
+      <c r="E278" s="32"/>
+      <c r="F278" s="32"/>
+      <c r="G278" s="32"/>
     </row>
     <row r="279" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B279" s="34"/>
-      <c r="C279" s="34"/>
-      <c r="D279" s="34"/>
-      <c r="E279" s="34"/>
-      <c r="F279" s="34"/>
-      <c r="G279" s="34"/>
+      <c r="B279" s="32"/>
+      <c r="C279" s="32"/>
+      <c r="D279" s="32"/>
+      <c r="E279" s="32"/>
+      <c r="F279" s="32"/>
+      <c r="G279" s="32"/>
     </row>
     <row r="280" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B280" s="34"/>
-      <c r="C280" s="34"/>
-      <c r="D280" s="34"/>
-      <c r="E280" s="34"/>
-      <c r="F280" s="34"/>
-      <c r="G280" s="34"/>
+      <c r="B280" s="32"/>
+      <c r="C280" s="32"/>
+      <c r="D280" s="32"/>
+      <c r="E280" s="32"/>
+      <c r="F280" s="32"/>
+      <c r="G280" s="32"/>
     </row>
     <row r="281" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B281" s="34"/>
-      <c r="C281" s="34"/>
-      <c r="D281" s="34"/>
-      <c r="E281" s="34"/>
-      <c r="F281" s="34"/>
-      <c r="G281" s="34"/>
+      <c r="B281" s="32"/>
+      <c r="C281" s="32"/>
+      <c r="D281" s="32"/>
+      <c r="E281" s="32"/>
+      <c r="F281" s="32"/>
+      <c r="G281" s="32"/>
     </row>
     <row r="282" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B282" s="34"/>
-      <c r="C282" s="34"/>
-      <c r="D282" s="34"/>
-      <c r="E282" s="34"/>
-      <c r="F282" s="34"/>
-      <c r="G282" s="34"/>
+      <c r="B282" s="32"/>
+      <c r="C282" s="32"/>
+      <c r="D282" s="32"/>
+      <c r="E282" s="32"/>
+      <c r="F282" s="32"/>
+      <c r="G282" s="32"/>
     </row>
     <row r="283" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B283" s="34"/>
-      <c r="C283" s="34"/>
-      <c r="D283" s="34"/>
-      <c r="E283" s="34"/>
-      <c r="F283" s="34"/>
-      <c r="G283" s="34"/>
+      <c r="B283" s="32"/>
+      <c r="C283" s="32"/>
+      <c r="D283" s="32"/>
+      <c r="E283" s="32"/>
+      <c r="F283" s="32"/>
+      <c r="G283" s="32"/>
     </row>
     <row r="284" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B284" s="34"/>
-      <c r="C284" s="34"/>
-      <c r="D284" s="34"/>
-      <c r="E284" s="34"/>
-      <c r="F284" s="34"/>
-      <c r="G284" s="34"/>
+      <c r="B284" s="32"/>
+      <c r="C284" s="32"/>
+      <c r="D284" s="32"/>
+      <c r="E284" s="32"/>
+      <c r="F284" s="32"/>
+      <c r="G284" s="32"/>
     </row>
     <row r="285" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B285" s="34"/>
-      <c r="C285" s="34"/>
-      <c r="D285" s="34"/>
-      <c r="E285" s="34"/>
-      <c r="F285" s="34"/>
-      <c r="G285" s="34"/>
+      <c r="B285" s="32"/>
+      <c r="C285" s="32"/>
+      <c r="D285" s="32"/>
+      <c r="E285" s="32"/>
+      <c r="F285" s="32"/>
+      <c r="G285" s="32"/>
     </row>
     <row r="286" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B286" s="34"/>
-      <c r="C286" s="34"/>
-      <c r="D286" s="34"/>
-      <c r="E286" s="34"/>
-      <c r="F286" s="34"/>
-      <c r="G286" s="34"/>
+      <c r="B286" s="32"/>
+      <c r="C286" s="32"/>
+      <c r="D286" s="32"/>
+      <c r="E286" s="32"/>
+      <c r="F286" s="32"/>
+      <c r="G286" s="32"/>
     </row>
     <row r="287" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B287" s="34"/>
-      <c r="C287" s="34"/>
-      <c r="D287" s="34"/>
-      <c r="E287" s="34"/>
-      <c r="F287" s="34"/>
-      <c r="G287" s="34"/>
+      <c r="B287" s="32"/>
+      <c r="C287" s="32"/>
+      <c r="D287" s="32"/>
+      <c r="E287" s="32"/>
+      <c r="F287" s="32"/>
+      <c r="G287" s="32"/>
     </row>
     <row r="288" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B288" s="34"/>
-      <c r="C288" s="34"/>
-      <c r="D288" s="34"/>
-      <c r="E288" s="34"/>
-      <c r="F288" s="34"/>
-      <c r="G288" s="34"/>
+      <c r="B288" s="32"/>
+      <c r="C288" s="32"/>
+      <c r="D288" s="32"/>
+      <c r="E288" s="32"/>
+      <c r="F288" s="32"/>
+      <c r="G288" s="32"/>
     </row>
     <row r="289" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B289" s="34"/>
-      <c r="C289" s="34"/>
-      <c r="D289" s="34"/>
-      <c r="E289" s="34"/>
-      <c r="F289" s="34"/>
-      <c r="G289" s="34"/>
+      <c r="B289" s="32"/>
+      <c r="C289" s="32"/>
+      <c r="D289" s="32"/>
+      <c r="E289" s="32"/>
+      <c r="F289" s="32"/>
+      <c r="G289" s="32"/>
     </row>
     <row r="290" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B290" s="34"/>
-      <c r="C290" s="34"/>
-      <c r="D290" s="34"/>
-      <c r="E290" s="34"/>
-      <c r="F290" s="34"/>
-      <c r="G290" s="34"/>
+      <c r="B290" s="32"/>
+      <c r="C290" s="32"/>
+      <c r="D290" s="32"/>
+      <c r="E290" s="32"/>
+      <c r="F290" s="32"/>
+      <c r="G290" s="32"/>
     </row>
     <row r="291" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B291" s="34"/>
-      <c r="C291" s="34"/>
-      <c r="D291" s="34"/>
-      <c r="E291" s="34"/>
-      <c r="F291" s="34"/>
-      <c r="G291" s="34"/>
+      <c r="F291" s="32"/>
     </row>
     <row r="292" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B292" s="34"/>
-      <c r="C292" s="34"/>
-      <c r="D292" s="34"/>
-      <c r="E292" s="34"/>
-      <c r="F292" s="34"/>
-      <c r="G292" s="34"/>
+      <c r="F292" s="32"/>
     </row>
     <row r="293" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B293" s="34"/>
-      <c r="C293" s="34"/>
-      <c r="D293" s="34"/>
-      <c r="E293" s="34"/>
-      <c r="F293" s="34"/>
-      <c r="G293" s="34"/>
+      <c r="F293" s="32"/>
     </row>
     <row r="294" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B294" s="34"/>
-      <c r="C294" s="34"/>
-      <c r="D294" s="34"/>
-      <c r="E294" s="34"/>
-      <c r="F294" s="34"/>
-      <c r="G294" s="34"/>
+      <c r="F294" s="32"/>
     </row>
     <row r="295" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F295" s="34"/>
+      <c r="F295" s="32"/>
     </row>
     <row r="296" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F296" s="34"/>
+      <c r="F296" s="32"/>
     </row>
     <row r="297" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F297" s="34"/>
+      <c r="F297" s="32"/>
     </row>
     <row r="298" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F298" s="34"/>
+      <c r="F298" s="32"/>
     </row>
     <row r="299" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F299" s="34"/>
+      <c r="F299" s="32"/>
     </row>
     <row r="300" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F300" s="34"/>
+      <c r="F300" s="32"/>
     </row>
     <row r="301" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F301" s="34"/>
+      <c r="F301" s="32"/>
     </row>
     <row r="302" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F302" s="34"/>
+      <c r="F302" s="32"/>
     </row>
     <row r="303" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F303" s="34"/>
+      <c r="F303" s="32"/>
     </row>
     <row r="304" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F304" s="34"/>
+      <c r="F304" s="32"/>
     </row>
     <row r="305" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F305" s="34"/>
+      <c r="F305" s="32"/>
     </row>
     <row r="306" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F306" s="34"/>
+      <c r="F306" s="32"/>
     </row>
     <row r="307" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F307" s="34"/>
+      <c r="F307" s="32"/>
     </row>
     <row r="308" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F308" s="34"/>
+      <c r="F308" s="32"/>
     </row>
     <row r="309" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F309" s="34"/>
+      <c r="F309" s="32"/>
     </row>
     <row r="310" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F310" s="34"/>
+      <c r="F310" s="32"/>
     </row>
     <row r="311" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F311" s="34"/>
+      <c r="F311" s="32"/>
     </row>
     <row r="312" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F312" s="34"/>
+      <c r="F312" s="32"/>
     </row>
     <row r="313" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F313" s="34"/>
+      <c r="F313" s="32"/>
     </row>
     <row r="314" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F314" s="34"/>
+      <c r="F314" s="32"/>
     </row>
     <row r="315" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F315" s="34"/>
+      <c r="F315" s="32"/>
     </row>
     <row r="316" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F316" s="34"/>
+      <c r="F316" s="32"/>
     </row>
     <row r="317" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F317" s="34"/>
+      <c r="F317" s="32"/>
     </row>
     <row r="318" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F318" s="34"/>
+      <c r="F318" s="32"/>
     </row>
     <row r="319" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F319" s="34"/>
+      <c r="F319" s="32"/>
     </row>
     <row r="320" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F320" s="34"/>
+      <c r="F320" s="32"/>
     </row>
     <row r="321" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F321" s="34"/>
+      <c r="F321" s="32"/>
     </row>
     <row r="322" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F322" s="34"/>
+      <c r="F322" s="32"/>
     </row>
     <row r="323" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F323" s="34"/>
+      <c r="F323" s="32"/>
     </row>
     <row r="324" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F324" s="34"/>
+      <c r="F324" s="32"/>
     </row>
     <row r="325" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F325" s="34"/>
+      <c r="F325" s="32"/>
     </row>
     <row r="326" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F326" s="34"/>
+      <c r="F326" s="32"/>
     </row>
     <row r="327" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F327" s="34"/>
+      <c r="F327" s="32"/>
     </row>
     <row r="328" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F328" s="34"/>
+      <c r="F328" s="32"/>
     </row>
     <row r="329" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F329" s="34"/>
+      <c r="F329" s="32"/>
     </row>
     <row r="330" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F330" s="34"/>
+      <c r="F330" s="32"/>
     </row>
     <row r="331" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F331" s="34"/>
+      <c r="F331" s="32"/>
     </row>
     <row r="332" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F332" s="34"/>
+      <c r="F332" s="32"/>
     </row>
     <row r="333" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F333" s="34"/>
+      <c r="F333" s="32"/>
     </row>
     <row r="334" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F334" s="34"/>
+      <c r="F334" s="32"/>
     </row>
     <row r="335" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F335" s="34"/>
+      <c r="F335" s="32"/>
     </row>
     <row r="336" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F336" s="34"/>
+      <c r="F336" s="32"/>
     </row>
     <row r="337" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F337" s="34"/>
+      <c r="F337" s="32"/>
     </row>
     <row r="338" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F338" s="34"/>
+      <c r="F338" s="32"/>
     </row>
     <row r="339" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F339" s="34"/>
+      <c r="F339" s="32"/>
     </row>
     <row r="340" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F340" s="34"/>
+      <c r="F340" s="32"/>
     </row>
     <row r="341" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F341" s="34"/>
+      <c r="F341" s="32"/>
     </row>
     <row r="342" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F342" s="34"/>
+      <c r="F342" s="32"/>
     </row>
     <row r="343" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F343" s="34"/>
+      <c r="F343" s="32"/>
     </row>
     <row r="344" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F344" s="34"/>
+      <c r="F344" s="32"/>
     </row>
     <row r="345" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F345" s="34"/>
+      <c r="F345" s="32"/>
     </row>
     <row r="346" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F346" s="34"/>
+      <c r="F346" s="32"/>
     </row>
     <row r="347" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F347" s="34"/>
+      <c r="F347" s="32"/>
     </row>
     <row r="348" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F348" s="34"/>
+      <c r="F348" s="32"/>
     </row>
     <row r="349" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F349" s="34"/>
+      <c r="F349" s="32"/>
     </row>
     <row r="350" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F350" s="34"/>
+      <c r="F350" s="32"/>
     </row>
     <row r="351" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F351" s="34"/>
+      <c r="F351" s="32"/>
     </row>
     <row r="352" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F352" s="34"/>
+      <c r="F352" s="32"/>
     </row>
     <row r="353" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F353" s="34"/>
+      <c r="F353" s="32"/>
     </row>
     <row r="354" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F354" s="34"/>
+      <c r="F354" s="32"/>
     </row>
     <row r="355" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F355" s="34"/>
+      <c r="F355" s="32"/>
     </row>
     <row r="356" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F356" s="34"/>
+      <c r="F356" s="32"/>
     </row>
     <row r="357" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F357" s="34"/>
+      <c r="F357" s="32"/>
     </row>
     <row r="358" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F358" s="34"/>
+      <c r="F358" s="32"/>
     </row>
     <row r="359" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F359" s="34"/>
+      <c r="F359" s="32"/>
     </row>
     <row r="360" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F360" s="34"/>
+      <c r="F360" s="32"/>
     </row>
     <row r="361" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F361" s="34"/>
+      <c r="F361" s="32"/>
     </row>
     <row r="362" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F362" s="34"/>
+      <c r="F362" s="32"/>
     </row>
     <row r="363" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F363" s="34"/>
+      <c r="F363" s="32"/>
     </row>
     <row r="364" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F364" s="34"/>
+      <c r="F364" s="32"/>
     </row>
     <row r="365" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F365" s="34"/>
+      <c r="F365" s="32"/>
     </row>
     <row r="366" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F366" s="34"/>
+      <c r="F366" s="32"/>
     </row>
     <row r="367" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F367" s="34"/>
+      <c r="F367" s="32"/>
     </row>
     <row r="368" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F368" s="34"/>
+      <c r="F368" s="32"/>
     </row>
     <row r="369" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F369" s="34"/>
+      <c r="F369" s="32"/>
     </row>
     <row r="370" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F370" s="34"/>
+      <c r="F370" s="32"/>
     </row>
     <row r="371" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F371" s="34"/>
+      <c r="F371" s="32"/>
     </row>
     <row r="372" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F372" s="34"/>
+      <c r="F372" s="32"/>
     </row>
     <row r="373" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F373" s="34"/>
+      <c r="F373" s="32"/>
     </row>
     <row r="374" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F374" s="34"/>
+      <c r="F374" s="32"/>
     </row>
     <row r="375" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F375" s="34"/>
+      <c r="F375" s="32"/>
     </row>
     <row r="376" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F376" s="34"/>
+      <c r="F376" s="32"/>
     </row>
     <row r="377" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F377" s="34"/>
+      <c r="F377" s="32"/>
     </row>
     <row r="378" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F378" s="34"/>
+      <c r="F378" s="32"/>
     </row>
     <row r="379" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F379" s="34"/>
+      <c r="F379" s="32"/>
     </row>
     <row r="380" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F380" s="34"/>
+      <c r="F380" s="32"/>
     </row>
     <row r="381" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F381" s="34"/>
+      <c r="F381" s="32"/>
     </row>
     <row r="382" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F382" s="34"/>
+      <c r="F382" s="32"/>
     </row>
     <row r="383" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F383" s="34"/>
+      <c r="F383" s="32"/>
     </row>
     <row r="384" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F384" s="34"/>
+      <c r="F384" s="32"/>
     </row>
     <row r="385" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F385" s="34"/>
+      <c r="F385" s="32"/>
     </row>
     <row r="386" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F386" s="34"/>
+      <c r="F386" s="32"/>
     </row>
     <row r="387" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F387" s="34"/>
+      <c r="F387" s="32"/>
     </row>
     <row r="388" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F388" s="34"/>
+      <c r="F388" s="32"/>
     </row>
     <row r="389" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F389" s="34"/>
+      <c r="F389" s="32"/>
     </row>
     <row r="390" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F390" s="34"/>
+      <c r="F390" s="32"/>
     </row>
     <row r="391" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F391" s="34"/>
+      <c r="F391" s="32"/>
     </row>
     <row r="392" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F392" s="34"/>
+      <c r="F392" s="32"/>
     </row>
     <row r="393" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F393" s="34"/>
+      <c r="F393" s="32"/>
     </row>
     <row r="394" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F394" s="34"/>
+      <c r="F394" s="32"/>
     </row>
     <row r="395" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F395" s="34"/>
+      <c r="F395" s="32"/>
     </row>
     <row r="396" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F396" s="34"/>
+      <c r="F396" s="32"/>
     </row>
     <row r="397" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F397" s="34"/>
+      <c r="F397" s="32"/>
     </row>
     <row r="398" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F398" s="34"/>
+      <c r="F398" s="32"/>
     </row>
     <row r="399" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F399" s="34"/>
+      <c r="F399" s="32"/>
     </row>
     <row r="400" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F400" s="34"/>
+      <c r="F400" s="32"/>
     </row>
     <row r="401" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F401" s="34"/>
+      <c r="F401" s="32"/>
     </row>
     <row r="402" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F402" s="34"/>
+      <c r="F402" s="32"/>
     </row>
     <row r="403" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F403" s="34"/>
+      <c r="F403" s="32"/>
     </row>
     <row r="404" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F404" s="34"/>
+      <c r="F404" s="32"/>
     </row>
     <row r="405" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F405" s="34"/>
+      <c r="F405" s="32"/>
     </row>
     <row r="406" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F406" s="34"/>
+      <c r="F406" s="32"/>
     </row>
     <row r="407" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F407" s="34"/>
+      <c r="F407" s="32"/>
     </row>
     <row r="408" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F408" s="34"/>
+      <c r="F408" s="32"/>
     </row>
     <row r="409" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F409" s="34"/>
+      <c r="F409" s="32"/>
     </row>
     <row r="410" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F410" s="34"/>
+      <c r="F410" s="32"/>
     </row>
     <row r="411" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F411" s="34"/>
+      <c r="F411" s="32"/>
     </row>
     <row r="412" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F412" s="34"/>
+      <c r="F412" s="32"/>
     </row>
     <row r="413" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F413" s="34"/>
+      <c r="F413" s="32"/>
     </row>
     <row r="414" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F414" s="34"/>
+      <c r="F414" s="32"/>
     </row>
     <row r="415" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F415" s="34"/>
+      <c r="F415" s="32"/>
     </row>
     <row r="416" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F416" s="34"/>
+      <c r="F416" s="32"/>
     </row>
     <row r="417" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F417" s="34"/>
+      <c r="F417" s="32"/>
     </row>
     <row r="418" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F418" s="34"/>
+      <c r="F418" s="32"/>
     </row>
     <row r="419" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F419" s="34"/>
+      <c r="F419" s="32"/>
     </row>
     <row r="420" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F420" s="34"/>
+      <c r="F420" s="32"/>
     </row>
     <row r="421" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F421" s="34"/>
+      <c r="F421" s="32"/>
     </row>
     <row r="422" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F422" s="34"/>
+      <c r="F422" s="32"/>
     </row>
     <row r="423" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F423" s="34"/>
+      <c r="F423" s="32"/>
     </row>
     <row r="424" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F424" s="34"/>
+      <c r="F424" s="32"/>
     </row>
     <row r="425" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F425" s="34"/>
+      <c r="F425" s="32"/>
     </row>
     <row r="426" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F426" s="34"/>
+      <c r="F426" s="32"/>
     </row>
     <row r="427" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F427" s="34"/>
+      <c r="F427" s="32"/>
     </row>
     <row r="428" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F428" s="34"/>
+      <c r="F428" s="32"/>
     </row>
     <row r="429" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F429" s="34"/>
+      <c r="F429" s="32"/>
     </row>
     <row r="430" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F430" s="34"/>
+      <c r="F430" s="32"/>
     </row>
     <row r="431" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F431" s="34"/>
+      <c r="F431" s="32"/>
     </row>
     <row r="432" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F432" s="34"/>
+      <c r="F432" s="32"/>
     </row>
     <row r="433" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F433" s="34"/>
+      <c r="F433" s="32"/>
     </row>
     <row r="434" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F434" s="34"/>
+      <c r="F434" s="32"/>
     </row>
     <row r="435" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F435" s="34"/>
+      <c r="F435" s="32"/>
     </row>
     <row r="436" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F436" s="34"/>
+      <c r="F436" s="32"/>
     </row>
     <row r="437" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F437" s="34"/>
+      <c r="F437" s="32"/>
     </row>
     <row r="438" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F438" s="34"/>
+      <c r="F438" s="32"/>
     </row>
     <row r="439" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F439" s="34"/>
+      <c r="F439" s="32"/>
     </row>
     <row r="440" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F440" s="34"/>
+      <c r="F440" s="32"/>
     </row>
     <row r="441" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F441" s="34"/>
+      <c r="F441" s="32"/>
     </row>
     <row r="442" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F442" s="34"/>
+      <c r="F442" s="32"/>
     </row>
     <row r="443" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F443" s="34"/>
+      <c r="F443" s="32"/>
     </row>
     <row r="444" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F444" s="34"/>
+      <c r="F444" s="32"/>
     </row>
     <row r="445" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F445" s="34"/>
+      <c r="F445" s="32"/>
     </row>
     <row r="446" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F446" s="34"/>
+      <c r="F446" s="32"/>
     </row>
     <row r="447" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F447" s="34"/>
+      <c r="F447" s="32"/>
     </row>
     <row r="448" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F448" s="34"/>
+      <c r="F448" s="32"/>
     </row>
     <row r="449" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F449" s="34"/>
+      <c r="F449" s="32"/>
     </row>
     <row r="450" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F450" s="34"/>
+      <c r="F450" s="32"/>
     </row>
     <row r="451" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F451" s="34"/>
+      <c r="F451" s="32"/>
     </row>
     <row r="452" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F452" s="34"/>
+      <c r="F452" s="32"/>
     </row>
     <row r="453" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F453" s="34"/>
+      <c r="F453" s="32"/>
     </row>
     <row r="454" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F454" s="34"/>
+      <c r="F454" s="32"/>
     </row>
     <row r="455" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F455" s="34"/>
+      <c r="F455" s="32"/>
     </row>
     <row r="456" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F456" s="34"/>
+      <c r="F456" s="32"/>
     </row>
     <row r="457" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F457" s="34"/>
+      <c r="F457" s="32"/>
     </row>
     <row r="458" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F458" s="34"/>
+      <c r="F458" s="32"/>
     </row>
     <row r="459" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F459" s="34"/>
+      <c r="F459" s="32"/>
     </row>
     <row r="460" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F460" s="34"/>
+      <c r="F460" s="32"/>
     </row>
     <row r="461" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F461" s="34"/>
+      <c r="F461" s="32"/>
     </row>
     <row r="462" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F462" s="34"/>
+      <c r="F462" s="32"/>
     </row>
     <row r="463" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F463" s="34"/>
+      <c r="F463" s="32"/>
     </row>
     <row r="464" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F464" s="34"/>
+      <c r="F464" s="32"/>
     </row>
     <row r="465" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F465" s="34"/>
+      <c r="F465" s="32"/>
     </row>
     <row r="466" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F466" s="34"/>
+      <c r="F466" s="32"/>
     </row>
     <row r="467" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F467" s="34"/>
+      <c r="F467" s="32"/>
     </row>
     <row r="468" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F468" s="34"/>
+      <c r="F468" s="32"/>
     </row>
     <row r="469" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F469" s="34"/>
+      <c r="F469" s="32"/>
     </row>
     <row r="470" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F470" s="34"/>
+      <c r="F470" s="32"/>
     </row>
     <row r="471" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F471" s="34"/>
+      <c r="F471" s="32"/>
     </row>
     <row r="472" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F472" s="34"/>
+      <c r="F472" s="32"/>
     </row>
     <row r="473" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F473" s="34"/>
+      <c r="F473" s="32"/>
     </row>
     <row r="474" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F474" s="34"/>
+      <c r="F474" s="32"/>
     </row>
     <row r="475" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F475" s="34"/>
+      <c r="F475" s="32"/>
     </row>
     <row r="476" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F476" s="34"/>
+      <c r="F476" s="32"/>
     </row>
     <row r="477" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F477" s="34"/>
+      <c r="F477" s="32"/>
     </row>
     <row r="478" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F478" s="34"/>
+      <c r="F478" s="32"/>
     </row>
     <row r="479" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F479" s="34"/>
+      <c r="F479" s="32"/>
     </row>
     <row r="480" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F480" s="34"/>
+      <c r="F480" s="32"/>
     </row>
     <row r="481" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F481" s="34"/>
+      <c r="F481" s="32"/>
     </row>
     <row r="482" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F482" s="34"/>
+      <c r="F482" s="32"/>
     </row>
     <row r="483" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F483" s="34"/>
+      <c r="F483" s="32"/>
     </row>
     <row r="484" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F484" s="34"/>
+      <c r="F484" s="32"/>
     </row>
     <row r="485" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F485" s="34"/>
+      <c r="F485" s="32"/>
     </row>
     <row r="486" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F486" s="34"/>
+      <c r="F486" s="32"/>
     </row>
     <row r="487" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F487" s="34"/>
+      <c r="F487" s="32"/>
     </row>
     <row r="488" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F488" s="34"/>
+      <c r="F488" s="32"/>
     </row>
     <row r="489" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F489" s="34"/>
+      <c r="F489" s="32"/>
     </row>
     <row r="490" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F490" s="34"/>
+      <c r="F490" s="32"/>
     </row>
     <row r="491" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F491" s="34"/>
+      <c r="F491" s="32"/>
     </row>
     <row r="492" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F492" s="34"/>
+      <c r="F492" s="32"/>
     </row>
     <row r="493" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F493" s="34"/>
+      <c r="F493" s="32"/>
     </row>
     <row r="494" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F494" s="34"/>
+      <c r="F494" s="32"/>
     </row>
     <row r="495" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F495" s="34"/>
+      <c r="F495" s="32"/>
     </row>
     <row r="496" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F496" s="34"/>
+      <c r="F496" s="32"/>
     </row>
     <row r="497" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F497" s="34"/>
+      <c r="F497" s="32"/>
     </row>
     <row r="498" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F498" s="34"/>
+      <c r="F498" s="32"/>
     </row>
     <row r="499" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F499" s="34"/>
+      <c r="F499" s="32"/>
     </row>
     <row r="500" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F500" s="34"/>
+      <c r="F500" s="32"/>
     </row>
     <row r="501" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F501" s="34"/>
+      <c r="F501" s="32"/>
     </row>
     <row r="502" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F502" s="34"/>
+      <c r="F502" s="32"/>
     </row>
     <row r="503" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F503" s="34"/>
+      <c r="F503" s="32"/>
     </row>
     <row r="504" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F504" s="34"/>
+      <c r="F504" s="32"/>
     </row>
     <row r="505" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F505" s="34"/>
+      <c r="F505" s="32"/>
     </row>
     <row r="506" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F506" s="34"/>
+      <c r="F506" s="32"/>
     </row>
     <row r="507" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F507" s="34"/>
+      <c r="F507" s="32"/>
     </row>
     <row r="508" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F508" s="34"/>
+      <c r="F508" s="32"/>
     </row>
     <row r="509" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F509" s="34"/>
+      <c r="F509" s="32"/>
     </row>
     <row r="510" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F510" s="34"/>
+      <c r="F510" s="32"/>
     </row>
     <row r="511" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F511" s="34"/>
+      <c r="F511" s="32"/>
     </row>
     <row r="512" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F512" s="34"/>
+      <c r="F512" s="32"/>
     </row>
     <row r="513" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F513" s="34"/>
+      <c r="F513" s="32"/>
     </row>
     <row r="514" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F514" s="34"/>
+      <c r="F514" s="32"/>
     </row>
     <row r="515" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F515" s="34"/>
+      <c r="F515" s="32"/>
     </row>
     <row r="516" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F516" s="34"/>
+      <c r="F516" s="32"/>
     </row>
     <row r="517" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F517" s="34"/>
+      <c r="F517" s="32"/>
     </row>
     <row r="518" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F518" s="34"/>
+      <c r="F518" s="32"/>
     </row>
     <row r="519" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F519" s="34"/>
+      <c r="F519" s="32"/>
     </row>
     <row r="520" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F520" s="34"/>
+      <c r="F520" s="32"/>
     </row>
     <row r="521" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F521" s="34"/>
+      <c r="F521" s="32"/>
     </row>
     <row r="522" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F522" s="34"/>
+      <c r="F522" s="32"/>
     </row>
     <row r="523" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F523" s="34"/>
+      <c r="F523" s="32"/>
     </row>
     <row r="524" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F524" s="34"/>
+      <c r="F524" s="32"/>
     </row>
     <row r="525" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F525" s="34"/>
+      <c r="F525" s="32"/>
     </row>
     <row r="526" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F526" s="34"/>
+      <c r="F526" s="32"/>
     </row>
     <row r="527" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F527" s="34"/>
-    </row>
-    <row r="528" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F528" s="34"/>
-    </row>
-    <row r="529" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F529" s="34"/>
-    </row>
-    <row r="530" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F530" s="34"/>
-    </row>
-    <row r="531" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F531" s="34"/>
+      <c r="F527" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/Plan/DetailPlan.xlsx
+++ b/documents/Plan/DetailPlan.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="267">
   <si>
     <t>Task Name</t>
   </si>
@@ -447,9 +448,6 @@
     <t xml:space="preserve">     3.3.3 Update System design </t>
   </si>
   <si>
-    <t>Mon 10/15/12</t>
-  </si>
-  <si>
     <t xml:space="preserve">     3.3.1 Update Use case  </t>
   </si>
   <si>
@@ -501,9 +499,6 @@
     <t xml:space="preserve">       3.3.7.3 GUI</t>
   </si>
   <si>
-    <t xml:space="preserve">     3.3.11 Review Income and Expense management function</t>
-  </si>
-  <si>
     <t>Wed 10/3/12</t>
   </si>
   <si>
@@ -525,9 +520,6 @@
     <t>Sun 10/14/12</t>
   </si>
   <si>
-    <t>Sat 10/13/12</t>
-  </si>
-  <si>
     <t>Tue 10/9/12</t>
   </si>
   <si>
@@ -546,48 +538,27 @@
     <t xml:space="preserve">     3.3.13 Meeting for complete sprint 2</t>
   </si>
   <si>
-    <t xml:space="preserve">         3.3.2.1.1 Main screen</t>
-  </si>
-  <si>
-    <t>Tue 10/30/12</t>
-  </si>
-  <si>
     <t xml:space="preserve">     3.3.4 Update report 2 ( Plan)</t>
   </si>
   <si>
     <t xml:space="preserve">     3.3.6 Create test case for sprint 3</t>
   </si>
   <si>
-    <t>2 day</t>
-  </si>
-  <si>
-    <t>Tue 10/16/12</t>
-  </si>
-  <si>
     <t>Fri 10/19/12</t>
   </si>
   <si>
     <t>Wed 10/17/12</t>
   </si>
   <si>
-    <t>Thu 10/25/12</t>
-  </si>
-  <si>
     <t xml:space="preserve">       3.3.7.4 Test case</t>
   </si>
   <si>
     <t>Sat 10/20/12</t>
   </si>
   <si>
-    <t>Tue 10/23/12</t>
-  </si>
-  <si>
     <t xml:space="preserve">       3.3.7.1 Report 2 (final)</t>
   </si>
   <si>
-    <t>Fri 10/26/12</t>
-  </si>
-  <si>
     <t>Sun 10/28/12</t>
   </si>
   <si>
@@ -612,33 +583,6 @@
     <t xml:space="preserve">     3.3.12 Meeting for complete sprint 3</t>
   </si>
   <si>
-    <t xml:space="preserve">     3.3.2 Create GUI of Synchronize function (ver 0.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3.3.7.1 Report 4 (ver 0.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3.3.2.1 Synchronize function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         3.3.2.1.2 Login screen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.3.4 Update SRS(ver 0.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3.3.5.1 Client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3.3.5.2 Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     3.3.6 Create test case for sprint 4</t>
-  </si>
-  <si>
-    <t>Wed 11/14/12</t>
-  </si>
-  <si>
     <t>LinhLLL, GamNT</t>
   </si>
   <si>
@@ -685,13 +629,213 @@
   </si>
   <si>
     <t>3.4 Sprint 4 ( Report and Synchronize function)</t>
+  </si>
+  <si>
+    <t>Thu 10/18/12</t>
+  </si>
+  <si>
+    <t>3 day</t>
+  </si>
+  <si>
+    <t>Sun 11/04/12</t>
+  </si>
+  <si>
+    <t>Mon 10/30/12</t>
+  </si>
+  <si>
+    <t>Thu 11/1/12</t>
+  </si>
+  <si>
+    <t>Fri 11/2/12</t>
+  </si>
+  <si>
+    <t>Sat 11/3/12</t>
+  </si>
+  <si>
+    <t>Mon 11/4/12</t>
+  </si>
+  <si>
+    <t>Mon 11/19/12</t>
+  </si>
+  <si>
+    <t>Tue 11/5/12</t>
+  </si>
+  <si>
+    <t>Wed 11/6/12</t>
+  </si>
+  <si>
+    <t>Sat 11/9/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4.1 Update Use case  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4.2 Create GUI of Synchronize function (ver 0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.4.2.1 Synchronize function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.2.1.1 Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.2.1.2 Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.2.2.2 Chart</t>
+  </si>
+  <si>
+    <t>Fri 11/8/12</t>
+  </si>
+  <si>
+    <t>12 days</t>
+  </si>
+  <si>
+    <t>Sun 11/18/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.4.2.2 Report function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4.3 Update System design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4.4 Update SRS(ver 0.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4.5 Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.4.5.1 Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.5.1.1 Report detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.2.2.1 Report detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.5.1.2 Chart</t>
+  </si>
+  <si>
+    <t>6 days</t>
+  </si>
+  <si>
+    <t>Mon 11/12/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.4.5.2 Synchronize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.5.2.1 Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         3.4.5.2.2 Server</t>
+  </si>
+  <si>
+    <t>Thu 11/15/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4.6 Create test case for sprint 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4.7 Summit and Review </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.4.7.2 Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.4.7.3 GUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.4.7.4 Test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4.8 Execute test round 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4.9 Fix bugs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4.10 Execute test round 2</t>
+  </si>
+  <si>
+    <t>Sat 11/10/12</t>
+  </si>
+  <si>
+    <t>Sat 11/17/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4.11 Review Report and Synchronize function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     3.4.12 Meeting for complete sprint 4</t>
+  </si>
+  <si>
+    <t>4. System implement</t>
+  </si>
+  <si>
+    <t>Mon 11/26/12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.1 Intergrate 4 main functions</t>
+    </r>
+  </si>
+  <si>
+    <t>Wed 11/22/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3.4.7.1 Report 3 (ver 0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.2 Update report 3 (ver 0.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.3 Create report 4 (ver 0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.5 Update all functions GUI (ver 0.1)</t>
+  </si>
+  <si>
+    <t>Fri 11/24/12</t>
+  </si>
+  <si>
+    <t>Mon 12/3/12</t>
+  </si>
+  <si>
+    <t>5. System test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5.1 Create </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     4.6 Summit and review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       4.6.1 Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       4.6.2 Report 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       4.6.3 Report 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +952,26 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -952,7 +1116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1055,6 +1219,33 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1359,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD527"/>
+  <dimension ref="A1:AI538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,7 +1842,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
@@ -1959,7 +2150,7 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2111,7 +2302,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>26</v>
@@ -2243,7 +2434,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>77</v>
@@ -2297,7 +2488,7 @@
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>77</v>
@@ -2581,7 +2772,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2607,7 +2798,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>116</v>
       </c>
@@ -2835,7 +3026,7 @@
     </row>
     <row r="86" spans="1:6" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>18</v>
@@ -2844,14 +3035,14 @@
         <v>120</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="19"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>19</v>
@@ -2860,7 +3051,7 @@
         <v>120</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
@@ -2869,7 +3060,7 @@
     </row>
     <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>14</v>
@@ -2878,7 +3069,7 @@
         <v>120</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
@@ -2887,23 +3078,25 @@
     </row>
     <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="F89" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>21</v>
@@ -2912,7 +3105,7 @@
         <v>120</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2" t="s">
@@ -2921,16 +3114,16 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2" t="s">
@@ -2939,16 +3132,16 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -2957,16 +3150,16 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2" t="s">
@@ -2975,16 +3168,16 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
@@ -3002,7 +3195,7 @@
         <v>120</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="2" t="s">
@@ -3011,7 +3204,7 @@
     </row>
     <row r="96" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>22</v>
@@ -3020,7 +3213,7 @@
         <v>120</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="2" t="s">
@@ -3029,7 +3222,7 @@
     </row>
     <row r="97" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>10</v>
@@ -3038,7 +3231,7 @@
         <v>120</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
@@ -3047,13 +3240,13 @@
     </row>
     <row r="98" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>166</v>
@@ -3065,13 +3258,13 @@
     </row>
     <row r="99" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>166</v>
@@ -3083,16 +3276,16 @@
     </row>
     <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="2" t="s">
@@ -3101,16 +3294,16 @@
     </row>
     <row r="101" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E101" s="23"/>
       <c r="F101" s="23" t="s">
@@ -3119,16 +3312,16 @@
     </row>
     <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
@@ -3137,16 +3330,16 @@
     </row>
     <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2" t="s">
@@ -3155,16 +3348,16 @@
     </row>
     <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2" t="s">
@@ -3173,16 +3366,16 @@
     </row>
     <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
@@ -3191,16 +3384,16 @@
     </row>
     <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2" t="s">
@@ -3209,16 +3402,16 @@
     </row>
     <row r="107" spans="1:6" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
@@ -3227,16 +3420,16 @@
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="2" t="s">
@@ -3245,16 +3438,16 @@
     </row>
     <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="2" t="s">
@@ -3263,16 +3456,16 @@
     </row>
     <row r="110" spans="1:6" s="49" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B110" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C110" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="D110" s="47" t="s">
-        <v>143</v>
+      <c r="C110" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="E110" s="48"/>
       <c r="F110" s="47" t="s">
@@ -3281,16 +3474,16 @@
     </row>
     <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2" t="s">
@@ -3299,32 +3492,32 @@
     </row>
     <row r="112" spans="1:6" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B112" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" s="19"/>
     </row>
     <row r="113" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="2" t="s">
@@ -3333,16 +3526,16 @@
     </row>
     <row r="114" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="2" t="s">
@@ -3351,16 +3544,16 @@
     </row>
     <row r="115" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="2" t="s">
@@ -3369,16 +3562,16 @@
     </row>
     <row r="116" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="2" t="s">
@@ -3417,10 +3610,10 @@
         <v>19</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>39</v>
@@ -3428,33 +3621,33 @@
     </row>
     <row r="118" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>184</v>
+        <v>204</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>39</v>
@@ -3462,16 +3655,16 @@
     </row>
     <row r="120" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>184</v>
+        <v>204</v>
+      </c>
+      <c r="D120" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="F120" s="31" t="s">
         <v>34</v>
@@ -3479,16 +3672,16 @@
     </row>
     <row r="121" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>184</v>
+        <v>204</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="F121" s="31" t="s">
         <v>61</v>
@@ -3496,16 +3689,16 @@
     </row>
     <row r="122" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="D122" s="31" t="s">
-        <v>187</v>
+        <v>178</v>
+      </c>
+      <c r="D122" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="E122" s="35"/>
       <c r="F122" s="31" t="s">
@@ -3534,16 +3727,16 @@
     </row>
     <row r="123" spans="1:30" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B123" s="34" t="s">
         <v>77</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D123" s="34" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E123" s="39"/>
       <c r="F123" s="23" t="s">
@@ -3572,16 +3765,16 @@
     </row>
     <row r="124" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B124" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C124" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="D124" s="41" t="s">
-        <v>187</v>
+      <c r="C124" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="E124" s="32"/>
       <c r="F124" s="7" t="s">
@@ -3591,16 +3784,16 @@
     </row>
     <row r="125" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B125" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C125" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="D125" s="41" t="s">
-        <v>187</v>
+      <c r="C125" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="7" t="s">
@@ -3610,16 +3803,16 @@
     </row>
     <row r="126" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B126" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C126" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="D126" s="41" t="s">
-        <v>187</v>
+      <c r="C126" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="E126" s="32"/>
       <c r="F126" s="7" t="s">
@@ -3629,16 +3822,16 @@
     </row>
     <row r="127" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B127" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C127" s="41" t="s">
-        <v>187</v>
-      </c>
-      <c r="D127" s="41" t="s">
-        <v>187</v>
+      <c r="C127" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="E127" s="32"/>
       <c r="F127" s="7" t="s">
@@ -3648,16 +3841,16 @@
     </row>
     <row r="128" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B128" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="E128" s="32"/>
       <c r="F128" s="31" t="s">
@@ -3667,16 +3860,16 @@
     </row>
     <row r="129" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="E129" s="32"/>
       <c r="F129" s="31" t="s">
@@ -3686,16 +3879,16 @@
     </row>
     <row r="130" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B130" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="E130" s="32"/>
       <c r="F130" s="31" t="s">
@@ -3705,16 +3898,16 @@
     </row>
     <row r="131" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B131" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E131" s="32"/>
       <c r="F131" s="2" t="s">
@@ -3724,16 +3917,16 @@
     </row>
     <row r="132" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B132" s="31" t="s">
         <v>77</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E132" s="32"/>
       <c r="F132" s="2" t="s">
@@ -3743,29 +3936,33 @@
     </row>
     <row r="133" spans="1:30" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="19" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B133" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C133" s="19" t="s">
-        <v>177</v>
+      <c r="C133" s="50" t="s">
+        <v>211</v>
       </c>
       <c r="D133" s="19" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E133" s="42"/>
       <c r="F133" s="19"/>
     </row>
     <row r="134" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+      <c r="C134" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E134" s="43"/>
       <c r="F134" s="2" t="s">
         <v>41</v>
@@ -3773,13 +3970,17 @@
     </row>
     <row r="135" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C135" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="E135" s="43"/>
       <c r="F135" s="2" t="s">
         <v>41</v>
@@ -3787,13 +3988,17 @@
     </row>
     <row r="136" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="C136" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E136" s="43"/>
       <c r="F136" s="2" t="s">
         <v>41</v>
@@ -3801,27 +4006,39 @@
     </row>
     <row r="137" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="B137" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
+      <c r="C137" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D137" s="28" t="s">
+        <v>213</v>
+      </c>
       <c r="E137" s="44"/>
-      <c r="F137" s="2"/>
+      <c r="F137" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="138" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B138" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C138" s="28"/>
-      <c r="D138" s="2"/>
+      <c r="C138" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="E138" s="30"/>
-      <c r="F138" s="2"/>
+      <c r="F138" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G138" s="46"/>
       <c r="H138" s="29"/>
       <c r="I138" s="29"/>
@@ -3847,635 +4064,1081 @@
       <c r="AC138" s="29"/>
       <c r="AD138" s="29"/>
     </row>
-    <row r="139" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B139" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G139" s="52"/>
+      <c r="H139" s="52"/>
+      <c r="I139" s="52"/>
+      <c r="J139" s="52"/>
+      <c r="K139" s="52"/>
+      <c r="L139" s="52"/>
+      <c r="M139" s="52"/>
+      <c r="N139" s="52"/>
+      <c r="O139" s="52"/>
+      <c r="P139" s="52"/>
+      <c r="Q139" s="52"/>
+      <c r="R139" s="52"/>
+      <c r="S139" s="52"/>
+      <c r="T139" s="52"/>
+      <c r="U139" s="52"/>
+      <c r="V139" s="52"/>
+      <c r="W139" s="52"/>
+      <c r="X139" s="52"/>
+      <c r="Y139" s="52"/>
+      <c r="Z139" s="52"/>
+      <c r="AA139" s="52"/>
+      <c r="AB139" s="52"/>
+      <c r="AC139" s="52"/>
+      <c r="AD139" s="52"/>
+    </row>
+    <row r="140" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B140" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="F139" s="31"/>
-    </row>
-    <row r="140" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="F140" s="31"/>
-    </row>
-    <row r="141" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C140" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G140" s="52"/>
+      <c r="H140" s="52"/>
+      <c r="I140" s="52"/>
+      <c r="J140" s="52"/>
+      <c r="K140" s="52"/>
+      <c r="L140" s="52"/>
+      <c r="M140" s="52"/>
+      <c r="N140" s="52"/>
+      <c r="O140" s="52"/>
+      <c r="P140" s="52"/>
+      <c r="Q140" s="52"/>
+      <c r="R140" s="52"/>
+      <c r="S140" s="52"/>
+      <c r="T140" s="52"/>
+      <c r="U140" s="52"/>
+      <c r="V140" s="52"/>
+      <c r="W140" s="52"/>
+      <c r="X140" s="52"/>
+      <c r="Y140" s="52"/>
+      <c r="Z140" s="52"/>
+      <c r="AA140" s="52"/>
+      <c r="AB140" s="52"/>
+      <c r="AC140" s="52"/>
+      <c r="AD140" s="52"/>
+    </row>
+    <row r="141" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="F141" s="31"/>
+        <v>221</v>
+      </c>
+      <c r="B141" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C141" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G141" s="52"/>
+      <c r="H141" s="52"/>
+      <c r="I141" s="52"/>
+      <c r="J141" s="52"/>
+      <c r="K141" s="52"/>
+      <c r="L141" s="52"/>
+      <c r="M141" s="52"/>
+      <c r="N141" s="52"/>
+      <c r="O141" s="52"/>
+      <c r="P141" s="52"/>
+      <c r="Q141" s="52"/>
+      <c r="R141" s="52"/>
+      <c r="S141" s="52"/>
+      <c r="T141" s="52"/>
+      <c r="U141" s="52"/>
+      <c r="V141" s="52"/>
+      <c r="W141" s="52"/>
+      <c r="X141" s="52"/>
+      <c r="Y141" s="52"/>
+      <c r="Z141" s="52"/>
+      <c r="AA141" s="52"/>
+      <c r="AB141" s="52"/>
+      <c r="AC141" s="52"/>
+      <c r="AD141" s="52"/>
     </row>
     <row r="142" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="F142" s="31"/>
+        <v>19</v>
+      </c>
+      <c r="C142" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E142" s="53"/>
+      <c r="F142" s="31" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="143" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="F143" s="31"/>
+        <v>19</v>
+      </c>
+      <c r="C143" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F143" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="144" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="30" t="s">
-        <v>205</v>
+      <c r="A144" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="31"/>
-      <c r="G144" s="36"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="37"/>
-      <c r="K144" s="37"/>
-      <c r="L144" s="37"/>
-      <c r="M144" s="37"/>
-      <c r="N144" s="37"/>
-      <c r="O144" s="37"/>
-      <c r="P144" s="37"/>
-      <c r="Q144" s="37"/>
-      <c r="R144" s="37"/>
-      <c r="S144" s="37"/>
-      <c r="T144" s="37"/>
-      <c r="U144" s="37"/>
-      <c r="V144" s="37"/>
-      <c r="W144" s="37"/>
-      <c r="X144" s="37"/>
-      <c r="Y144" s="37"/>
-      <c r="Z144" s="38"/>
-    </row>
-    <row r="145" spans="1:26" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B145" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="39"/>
-      <c r="F145" s="34"/>
-      <c r="G145" s="45"/>
-      <c r="H145" s="40"/>
-      <c r="I145" s="40"/>
-      <c r="J145" s="40"/>
-      <c r="K145" s="40"/>
-      <c r="L145" s="40"/>
-      <c r="M145" s="40"/>
-      <c r="N145" s="40"/>
-      <c r="O145" s="40"/>
-      <c r="P145" s="40"/>
-      <c r="Q145" s="40"/>
-      <c r="R145" s="40"/>
-      <c r="S145" s="40"/>
-      <c r="T145" s="40"/>
-      <c r="U145" s="40"/>
-      <c r="V145" s="40"/>
-      <c r="W145" s="40"/>
-      <c r="X145" s="40"/>
-      <c r="Y145" s="40"/>
-      <c r="Z145" s="40"/>
+        <v>223</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F144" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F145" s="31" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="146" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="B146" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C146" s="41"/>
-      <c r="D146" s="41"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="32"/>
+      <c r="A146" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F146" s="31" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="147" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B147" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C147" s="41"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="32"/>
+      <c r="A147" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F147" s="31" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="148" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B148" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C148" s="41"/>
-      <c r="D148" s="41"/>
-      <c r="E148" s="32"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="32"/>
+      <c r="A148" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F148" s="31" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="149" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="B149" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C149" s="41"/>
-      <c r="D149" s="41"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="32"/>
+        <v>236</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F149" s="31" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="150" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C150" s="31"/>
-      <c r="D150" s="31"/>
-      <c r="E150" s="32"/>
-      <c r="F150" s="31"/>
-      <c r="G150" s="32"/>
+        <v>237</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F150" s="31" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="151" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B151" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="32"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="32"/>
-    </row>
-    <row r="152" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="B152" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="32"/>
-      <c r="F152" s="31"/>
-      <c r="G152" s="32"/>
+        <v>239</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="D151" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E151" s="35"/>
+      <c r="F151" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G151" s="36"/>
+      <c r="H151" s="37"/>
+      <c r="I151" s="37"/>
+      <c r="J151" s="37"/>
+      <c r="K151" s="37"/>
+      <c r="L151" s="37"/>
+      <c r="M151" s="37"/>
+      <c r="N151" s="37"/>
+      <c r="O151" s="37"/>
+      <c r="P151" s="37"/>
+      <c r="Q151" s="37"/>
+      <c r="R151" s="37"/>
+      <c r="S151" s="37"/>
+      <c r="T151" s="37"/>
+      <c r="U151" s="37"/>
+      <c r="V151" s="37"/>
+      <c r="W151" s="37"/>
+      <c r="X151" s="37"/>
+      <c r="Y151" s="37"/>
+      <c r="Z151" s="38"/>
+    </row>
+    <row r="152" spans="1:26" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B152" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C152" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D152" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E152" s="39"/>
+      <c r="F152" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G152" s="45"/>
+      <c r="H152" s="40"/>
+      <c r="I152" s="40"/>
+      <c r="J152" s="40"/>
+      <c r="K152" s="40"/>
+      <c r="L152" s="40"/>
+      <c r="M152" s="40"/>
+      <c r="N152" s="40"/>
+      <c r="O152" s="40"/>
+      <c r="P152" s="40"/>
+      <c r="Q152" s="40"/>
+      <c r="R152" s="40"/>
+      <c r="S152" s="40"/>
+      <c r="T152" s="40"/>
+      <c r="U152" s="40"/>
+      <c r="V152" s="40"/>
+      <c r="W152" s="40"/>
+      <c r="X152" s="40"/>
+      <c r="Y152" s="40"/>
+      <c r="Z152" s="40"/>
     </row>
     <row r="153" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B153" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B153" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
+      <c r="C153" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D153" s="41" t="s">
+        <v>234</v>
+      </c>
       <c r="E153" s="32"/>
-      <c r="F153" s="31"/>
+      <c r="F153" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="G153" s="32"/>
     </row>
     <row r="154" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="B154" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B154" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
+      <c r="C154" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D154" s="41" t="s">
+        <v>234</v>
+      </c>
       <c r="E154" s="32"/>
-      <c r="F154" s="31"/>
+      <c r="F154" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="G154" s="32"/>
     </row>
     <row r="155" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B155" s="31"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
+      <c r="A155" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B155" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C155" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D155" s="41" t="s">
+        <v>234</v>
+      </c>
       <c r="E155" s="32"/>
-      <c r="F155" s="31"/>
+      <c r="F155" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="G155" s="32"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B156" s="31"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="31"/>
+      <c r="A156" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B156" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C156" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D156" s="41" t="s">
+        <v>234</v>
+      </c>
       <c r="E156" s="32"/>
-      <c r="F156" s="31"/>
+      <c r="F156" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="G156" s="32"/>
     </row>
     <row r="157" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B157" s="31"/>
-      <c r="C157" s="31"/>
-      <c r="D157" s="31"/>
+      <c r="A157" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B157" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D157" s="31" t="s">
+        <v>238</v>
+      </c>
       <c r="E157" s="32"/>
-      <c r="F157" s="31"/>
+      <c r="F157" s="54" t="s">
+        <v>63</v>
+      </c>
       <c r="G157" s="32"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B158" s="31"/>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31"/>
+      <c r="A158" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="B158" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D158" s="31" t="s">
+        <v>248</v>
+      </c>
       <c r="E158" s="32"/>
-      <c r="F158" s="31"/>
+      <c r="F158" s="31" t="s">
+        <v>39</v>
+      </c>
       <c r="G158" s="32"/>
     </row>
     <row r="159" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" s="31"/>
-      <c r="C159" s="31"/>
-      <c r="D159" s="31"/>
+      <c r="A159" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="D159" s="31" t="s">
+        <v>212</v>
+      </c>
       <c r="E159" s="32"/>
-      <c r="F159" s="31"/>
+      <c r="F159" s="31" t="s">
+        <v>75</v>
+      </c>
       <c r="G159" s="32"/>
     </row>
     <row r="160" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B160" s="31"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="31"/>
+      <c r="A160" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D160" s="31" t="s">
+        <v>212</v>
+      </c>
       <c r="E160" s="32"/>
-      <c r="F160" s="31"/>
+      <c r="F160" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="G160" s="32"/>
     </row>
-    <row r="161" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="31"/>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
+    <row r="161" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C161" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D161" s="31" t="s">
+        <v>212</v>
+      </c>
       <c r="E161" s="32"/>
-      <c r="F161" s="31"/>
+      <c r="F161" s="54" t="s">
+        <v>130</v>
+      </c>
       <c r="G161" s="32"/>
     </row>
-    <row r="162" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B162" s="31"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
-      <c r="E162" s="32"/>
-      <c r="F162" s="31"/>
-      <c r="G162" s="32"/>
-    </row>
-    <row r="163" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
+    <row r="162" spans="1:35" s="56" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="B162" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C162" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D162" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="E162" s="60"/>
+      <c r="F162" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G162" s="61"/>
+      <c r="H162" s="61"/>
+    </row>
+    <row r="163" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B163" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C163" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D163" s="51" t="s">
+        <v>252</v>
+      </c>
       <c r="E163" s="32"/>
-      <c r="F163" s="31"/>
+      <c r="F163" s="51" t="s">
+        <v>39</v>
+      </c>
       <c r="G163" s="32"/>
-    </row>
-    <row r="164" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B164" s="31"/>
-      <c r="C164" s="31"/>
-      <c r="D164" s="31"/>
+      <c r="H163" s="59"/>
+    </row>
+    <row r="164" spans="1:35" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D164" s="31" t="s">
+        <v>254</v>
+      </c>
       <c r="E164" s="32"/>
-      <c r="F164" s="31"/>
+      <c r="F164" s="31" t="s">
+        <v>65</v>
+      </c>
       <c r="G164" s="32"/>
-    </row>
-    <row r="165" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B165" s="31"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
+      <c r="H164" s="32"/>
+    </row>
+    <row r="165" spans="1:35" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B165" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="D165" s="31" t="s">
+        <v>254</v>
+      </c>
       <c r="E165" s="32"/>
-      <c r="F165" s="31"/>
+      <c r="F165" s="51" t="s">
+        <v>39</v>
+      </c>
       <c r="G165" s="32"/>
-    </row>
-    <row r="166" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B166" s="31"/>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
+      <c r="H165" s="32"/>
+    </row>
+    <row r="166" spans="1:35" s="58" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D166" s="31" t="s">
+        <v>259</v>
+      </c>
       <c r="E166" s="32"/>
-      <c r="F166" s="31"/>
+      <c r="F166" s="31" t="s">
+        <v>74</v>
+      </c>
       <c r="G166" s="32"/>
-    </row>
-    <row r="167" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B167" s="31"/>
-      <c r="C167" s="31"/>
-      <c r="D167" s="31"/>
-      <c r="E167" s="32"/>
-      <c r="F167" s="31"/>
-      <c r="G167" s="32"/>
-    </row>
-    <row r="168" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B168" s="31"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="31"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="32"/>
-    </row>
-    <row r="169" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B169" s="31"/>
-      <c r="C169" s="31"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="32"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="32"/>
-    </row>
-    <row r="170" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B170" s="31"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="32"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="32"/>
-    </row>
-    <row r="171" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="31"/>
-      <c r="G171" s="32"/>
-    </row>
-    <row r="172" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H166" s="32"/>
+    </row>
+    <row r="167" spans="1:35" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="B167" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C167" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="E167" s="34"/>
+      <c r="F167" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G167" s="34"/>
+      <c r="H167" s="34"/>
+      <c r="I167" s="34"/>
+      <c r="J167" s="34"/>
+      <c r="K167" s="34"/>
+      <c r="L167" s="34"/>
+      <c r="M167" s="34"/>
+      <c r="N167" s="34"/>
+      <c r="O167" s="34"/>
+      <c r="P167" s="34"/>
+      <c r="Q167" s="34"/>
+      <c r="R167" s="34"/>
+      <c r="S167" s="34"/>
+      <c r="T167" s="34"/>
+      <c r="U167" s="34"/>
+      <c r="V167" s="34"/>
+      <c r="W167" s="34"/>
+      <c r="X167" s="34"/>
+      <c r="Y167" s="34"/>
+      <c r="Z167" s="34"/>
+      <c r="AA167" s="34"/>
+      <c r="AB167" s="34"/>
+      <c r="AC167" s="34"/>
+      <c r="AD167" s="34"/>
+      <c r="AE167" s="34"/>
+      <c r="AF167" s="34"/>
+      <c r="AG167" s="34"/>
+      <c r="AH167" s="34"/>
+      <c r="AI167" s="34"/>
+    </row>
+    <row r="168" spans="1:35" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B168" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C168" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D168" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E168" s="63"/>
+      <c r="F168" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G168" s="63"/>
+      <c r="H168" s="63"/>
+    </row>
+    <row r="169" spans="1:35" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B169" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C169" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D169" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E169" s="63"/>
+      <c r="F169" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G169" s="63"/>
+      <c r="H169" s="63"/>
+    </row>
+    <row r="170" spans="1:35" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="63" t="s">
+        <v>266</v>
+      </c>
+      <c r="B170" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C170" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D170" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="E170" s="63"/>
+      <c r="F170" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G170" s="63"/>
+      <c r="H170" s="63"/>
+    </row>
+    <row r="171" spans="1:35" s="56" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="B171" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="D171" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="E171" s="60"/>
+      <c r="F171" s="60"/>
+      <c r="G171" s="61"/>
+      <c r="H171" s="61"/>
+    </row>
+    <row r="172" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="59" t="s">
+        <v>262</v>
+      </c>
       <c r="B172" s="31"/>
       <c r="C172" s="31"/>
       <c r="D172" s="31"/>
       <c r="E172" s="32"/>
       <c r="F172" s="31"/>
       <c r="G172" s="32"/>
-    </row>
-    <row r="173" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H172" s="59"/>
+    </row>
+    <row r="173" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="59"/>
       <c r="B173" s="31"/>
       <c r="C173" s="31"/>
       <c r="D173" s="31"/>
       <c r="E173" s="32"/>
       <c r="F173" s="31"/>
       <c r="G173" s="32"/>
-    </row>
-    <row r="174" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H173" s="59"/>
+    </row>
+    <row r="174" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="59"/>
       <c r="B174" s="31"/>
       <c r="C174" s="31"/>
       <c r="D174" s="31"/>
       <c r="E174" s="32"/>
       <c r="F174" s="31"/>
       <c r="G174" s="32"/>
-    </row>
-    <row r="175" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H174" s="59"/>
+    </row>
+    <row r="175" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="59"/>
       <c r="B175" s="31"/>
       <c r="C175" s="31"/>
       <c r="D175" s="31"/>
       <c r="E175" s="32"/>
       <c r="F175" s="31"/>
       <c r="G175" s="32"/>
-    </row>
-    <row r="176" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H175" s="59"/>
+    </row>
+    <row r="176" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="59"/>
       <c r="B176" s="31"/>
       <c r="C176" s="31"/>
       <c r="D176" s="31"/>
       <c r="E176" s="32"/>
       <c r="F176" s="31"/>
       <c r="G176" s="32"/>
-    </row>
-    <row r="177" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H176" s="59"/>
+    </row>
+    <row r="177" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="59"/>
       <c r="B177" s="31"/>
       <c r="C177" s="31"/>
       <c r="D177" s="31"/>
       <c r="E177" s="32"/>
       <c r="F177" s="31"/>
       <c r="G177" s="32"/>
-    </row>
-    <row r="178" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H177" s="59"/>
+    </row>
+    <row r="178" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="59"/>
       <c r="B178" s="31"/>
       <c r="C178" s="31"/>
       <c r="D178" s="31"/>
       <c r="E178" s="32"/>
       <c r="F178" s="31"/>
       <c r="G178" s="32"/>
-    </row>
-    <row r="179" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H178" s="59"/>
+    </row>
+    <row r="179" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="59"/>
       <c r="B179" s="31"/>
       <c r="C179" s="31"/>
       <c r="D179" s="31"/>
       <c r="E179" s="32"/>
       <c r="F179" s="31"/>
       <c r="G179" s="32"/>
-    </row>
-    <row r="180" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H179" s="59"/>
+    </row>
+    <row r="180" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="59"/>
       <c r="B180" s="31"/>
       <c r="C180" s="31"/>
       <c r="D180" s="31"/>
       <c r="E180" s="32"/>
       <c r="F180" s="31"/>
       <c r="G180" s="32"/>
-    </row>
-    <row r="181" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H180" s="59"/>
+    </row>
+    <row r="181" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="59"/>
       <c r="B181" s="31"/>
       <c r="C181" s="31"/>
       <c r="D181" s="31"/>
       <c r="E181" s="32"/>
       <c r="F181" s="31"/>
       <c r="G181" s="32"/>
-    </row>
-    <row r="182" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H181" s="59"/>
+    </row>
+    <row r="182" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="59"/>
       <c r="B182" s="31"/>
       <c r="C182" s="31"/>
       <c r="D182" s="31"/>
       <c r="E182" s="32"/>
       <c r="F182" s="31"/>
       <c r="G182" s="32"/>
-    </row>
-    <row r="183" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H182" s="59"/>
+    </row>
+    <row r="183" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="59"/>
       <c r="B183" s="31"/>
       <c r="C183" s="31"/>
       <c r="D183" s="31"/>
       <c r="E183" s="32"/>
       <c r="F183" s="31"/>
       <c r="G183" s="32"/>
-    </row>
-    <row r="184" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H183" s="59"/>
+    </row>
+    <row r="184" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="59"/>
       <c r="B184" s="31"/>
       <c r="C184" s="31"/>
       <c r="D184" s="31"/>
       <c r="E184" s="32"/>
       <c r="F184" s="31"/>
       <c r="G184" s="32"/>
-    </row>
-    <row r="185" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H184" s="59"/>
+    </row>
+    <row r="185" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="59"/>
       <c r="B185" s="31"/>
       <c r="C185" s="31"/>
       <c r="D185" s="31"/>
       <c r="E185" s="32"/>
       <c r="F185" s="31"/>
       <c r="G185" s="32"/>
-    </row>
-    <row r="186" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H185" s="59"/>
+    </row>
+    <row r="186" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="59"/>
       <c r="B186" s="31"/>
       <c r="C186" s="31"/>
       <c r="D186" s="31"/>
       <c r="E186" s="32"/>
       <c r="F186" s="31"/>
       <c r="G186" s="32"/>
-    </row>
-    <row r="187" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H186" s="59"/>
+    </row>
+    <row r="187" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="59"/>
       <c r="B187" s="31"/>
       <c r="C187" s="31"/>
       <c r="D187" s="31"/>
       <c r="E187" s="32"/>
       <c r="F187" s="31"/>
       <c r="G187" s="32"/>
-    </row>
-    <row r="188" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B188" s="32"/>
-      <c r="C188" s="32"/>
-      <c r="D188" s="32"/>
+      <c r="H187" s="59"/>
+    </row>
+    <row r="188" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="59"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="31"/>
       <c r="E188" s="32"/>
       <c r="F188" s="31"/>
       <c r="G188" s="32"/>
-    </row>
-    <row r="189" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B189" s="32"/>
-      <c r="C189" s="32"/>
-      <c r="D189" s="32"/>
+      <c r="H188" s="59"/>
+    </row>
+    <row r="189" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="59"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="31"/>
+      <c r="D189" s="31"/>
       <c r="E189" s="32"/>
       <c r="F189" s="31"/>
       <c r="G189" s="32"/>
-    </row>
-    <row r="190" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B190" s="32"/>
-      <c r="C190" s="32"/>
-      <c r="D190" s="32"/>
+      <c r="H189" s="59"/>
+    </row>
+    <row r="190" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="59"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="31"/>
+      <c r="D190" s="31"/>
       <c r="E190" s="32"/>
       <c r="F190" s="31"/>
       <c r="G190" s="32"/>
-    </row>
-    <row r="191" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B191" s="32"/>
-      <c r="C191" s="32"/>
-      <c r="D191" s="32"/>
+      <c r="H190" s="59"/>
+    </row>
+    <row r="191" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="59"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="31"/>
+      <c r="D191" s="31"/>
       <c r="E191" s="32"/>
-      <c r="F191" s="32"/>
+      <c r="F191" s="31"/>
       <c r="G191" s="32"/>
-    </row>
-    <row r="192" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B192" s="32"/>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32"/>
+      <c r="H191" s="59"/>
+    </row>
+    <row r="192" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="59"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="31"/>
+      <c r="D192" s="31"/>
       <c r="E192" s="32"/>
-      <c r="F192" s="32"/>
+      <c r="F192" s="31"/>
       <c r="G192" s="32"/>
-    </row>
-    <row r="193" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B193" s="32"/>
-      <c r="C193" s="32"/>
-      <c r="D193" s="32"/>
+      <c r="H192" s="59"/>
+    </row>
+    <row r="193" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="59"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="31"/>
+      <c r="D193" s="31"/>
       <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
+      <c r="F193" s="31"/>
       <c r="G193" s="32"/>
-    </row>
-    <row r="194" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B194" s="32"/>
-      <c r="C194" s="32"/>
-      <c r="D194" s="32"/>
+      <c r="H193" s="59"/>
+    </row>
+    <row r="194" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="59"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="31"/>
+      <c r="D194" s="31"/>
       <c r="E194" s="32"/>
-      <c r="F194" s="32"/>
+      <c r="F194" s="31"/>
       <c r="G194" s="32"/>
-    </row>
-    <row r="195" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B195" s="32"/>
-      <c r="C195" s="32"/>
-      <c r="D195" s="32"/>
+      <c r="H194" s="59"/>
+    </row>
+    <row r="195" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="59"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="31"/>
+      <c r="D195" s="31"/>
       <c r="E195" s="32"/>
-      <c r="F195" s="32"/>
+      <c r="F195" s="31"/>
       <c r="G195" s="32"/>
-    </row>
-    <row r="196" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B196" s="32"/>
-      <c r="C196" s="32"/>
-      <c r="D196" s="32"/>
+      <c r="H195" s="59"/>
+    </row>
+    <row r="196" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="59"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="31"/>
+      <c r="D196" s="31"/>
       <c r="E196" s="32"/>
-      <c r="F196" s="32"/>
+      <c r="F196" s="31"/>
       <c r="G196" s="32"/>
-    </row>
-    <row r="197" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B197" s="32"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
+      <c r="H196" s="59"/>
+    </row>
+    <row r="197" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="59"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="31"/>
       <c r="E197" s="32"/>
-      <c r="F197" s="32"/>
+      <c r="F197" s="31"/>
       <c r="G197" s="32"/>
-    </row>
-    <row r="198" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B198" s="32"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
+      <c r="H197" s="59"/>
+    </row>
+    <row r="198" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="59"/>
+      <c r="B198" s="31"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="31"/>
       <c r="E198" s="32"/>
-      <c r="F198" s="32"/>
+      <c r="F198" s="31"/>
       <c r="G198" s="32"/>
-    </row>
-    <row r="199" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H198" s="59"/>
+    </row>
+    <row r="199" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="59"/>
       <c r="B199" s="32"/>
       <c r="C199" s="32"/>
       <c r="D199" s="32"/>
       <c r="E199" s="32"/>
-      <c r="F199" s="32"/>
+      <c r="F199" s="31"/>
       <c r="G199" s="32"/>
-    </row>
-    <row r="200" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H199" s="59"/>
+    </row>
+    <row r="200" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="59"/>
       <c r="B200" s="32"/>
       <c r="C200" s="32"/>
       <c r="D200" s="32"/>
       <c r="E200" s="32"/>
-      <c r="F200" s="32"/>
+      <c r="F200" s="31"/>
       <c r="G200" s="32"/>
-    </row>
-    <row r="201" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H200" s="59"/>
+    </row>
+    <row r="201" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="59"/>
       <c r="B201" s="32"/>
       <c r="C201" s="32"/>
       <c r="D201" s="32"/>
       <c r="E201" s="32"/>
-      <c r="F201" s="32"/>
+      <c r="F201" s="31"/>
       <c r="G201" s="32"/>
-    </row>
-    <row r="202" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H201" s="59"/>
+    </row>
+    <row r="202" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="59"/>
       <c r="B202" s="32"/>
       <c r="C202" s="32"/>
       <c r="D202" s="32"/>
       <c r="E202" s="32"/>
       <c r="F202" s="32"/>
       <c r="G202" s="32"/>
-    </row>
-    <row r="203" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H202" s="59"/>
+    </row>
+    <row r="203" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="59"/>
       <c r="B203" s="32"/>
       <c r="C203" s="32"/>
       <c r="D203" s="32"/>
       <c r="E203" s="32"/>
       <c r="F203" s="32"/>
       <c r="G203" s="32"/>
-    </row>
-    <row r="204" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H203" s="59"/>
+    </row>
+    <row r="204" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B204" s="32"/>
       <c r="C204" s="32"/>
       <c r="D204" s="32"/>
@@ -4483,7 +5146,7 @@
       <c r="F204" s="32"/>
       <c r="G204" s="32"/>
     </row>
-    <row r="205" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B205" s="32"/>
       <c r="C205" s="32"/>
       <c r="D205" s="32"/>
@@ -4491,7 +5154,7 @@
       <c r="F205" s="32"/>
       <c r="G205" s="32"/>
     </row>
-    <row r="206" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B206" s="32"/>
       <c r="C206" s="32"/>
       <c r="D206" s="32"/>
@@ -4499,7 +5162,7 @@
       <c r="F206" s="32"/>
       <c r="G206" s="32"/>
     </row>
-    <row r="207" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B207" s="32"/>
       <c r="C207" s="32"/>
       <c r="D207" s="32"/>
@@ -4507,7 +5170,7 @@
       <c r="F207" s="32"/>
       <c r="G207" s="32"/>
     </row>
-    <row r="208" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B208" s="32"/>
       <c r="C208" s="32"/>
       <c r="D208" s="32"/>
@@ -5172,37 +5835,92 @@
       <c r="G290" s="32"/>
     </row>
     <row r="291" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B291" s="32"/>
+      <c r="C291" s="32"/>
+      <c r="D291" s="32"/>
+      <c r="E291" s="32"/>
       <c r="F291" s="32"/>
+      <c r="G291" s="32"/>
     </row>
     <row r="292" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B292" s="32"/>
+      <c r="C292" s="32"/>
+      <c r="D292" s="32"/>
+      <c r="E292" s="32"/>
       <c r="F292" s="32"/>
+      <c r="G292" s="32"/>
     </row>
     <row r="293" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B293" s="32"/>
+      <c r="C293" s="32"/>
+      <c r="D293" s="32"/>
+      <c r="E293" s="32"/>
       <c r="F293" s="32"/>
+      <c r="G293" s="32"/>
     </row>
     <row r="294" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B294" s="32"/>
+      <c r="C294" s="32"/>
+      <c r="D294" s="32"/>
+      <c r="E294" s="32"/>
       <c r="F294" s="32"/>
+      <c r="G294" s="32"/>
     </row>
     <row r="295" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B295" s="32"/>
+      <c r="C295" s="32"/>
+      <c r="D295" s="32"/>
+      <c r="E295" s="32"/>
       <c r="F295" s="32"/>
+      <c r="G295" s="32"/>
     </row>
     <row r="296" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B296" s="32"/>
+      <c r="C296" s="32"/>
+      <c r="D296" s="32"/>
+      <c r="E296" s="32"/>
       <c r="F296" s="32"/>
+      <c r="G296" s="32"/>
     </row>
     <row r="297" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B297" s="32"/>
+      <c r="C297" s="32"/>
+      <c r="D297" s="32"/>
+      <c r="E297" s="32"/>
       <c r="F297" s="32"/>
+      <c r="G297" s="32"/>
     </row>
     <row r="298" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B298" s="32"/>
+      <c r="C298" s="32"/>
+      <c r="D298" s="32"/>
+      <c r="E298" s="32"/>
       <c r="F298" s="32"/>
+      <c r="G298" s="32"/>
     </row>
     <row r="299" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B299" s="32"/>
+      <c r="C299" s="32"/>
+      <c r="D299" s="32"/>
+      <c r="E299" s="32"/>
       <c r="F299" s="32"/>
+      <c r="G299" s="32"/>
     </row>
     <row r="300" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B300" s="32"/>
+      <c r="C300" s="32"/>
+      <c r="D300" s="32"/>
+      <c r="E300" s="32"/>
       <c r="F300" s="32"/>
+      <c r="G300" s="32"/>
     </row>
     <row r="301" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B301" s="32"/>
+      <c r="C301" s="32"/>
+      <c r="D301" s="32"/>
+      <c r="E301" s="32"/>
       <c r="F301" s="32"/>
+      <c r="G301" s="32"/>
     </row>
     <row r="302" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F302" s="32"/>
@@ -5881,6 +6599,39 @@
     </row>
     <row r="527" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F527" s="32"/>
+    </row>
+    <row r="528" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F528" s="32"/>
+    </row>
+    <row r="529" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F529" s="32"/>
+    </row>
+    <row r="530" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F530" s="32"/>
+    </row>
+    <row r="531" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F531" s="32"/>
+    </row>
+    <row r="532" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F532" s="32"/>
+    </row>
+    <row r="533" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F533" s="32"/>
+    </row>
+    <row r="534" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F534" s="32"/>
+    </row>
+    <row r="535" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F535" s="32"/>
+    </row>
+    <row r="536" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F536" s="32"/>
+    </row>
+    <row r="537" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F537" s="32"/>
+    </row>
+    <row r="538" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F538" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
